--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3066114102724387</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.3171415177393752</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2508445338049911</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.2251170848256619</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1726357976299394</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1456377525183181</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.0411171769375434</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.07508467623793266</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1739346451002729</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1508541478869574</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4364724120039263</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.455675197302285</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3003817713584227</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2675861058738578</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.3707575158907507</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.3908074223347818</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.33383859673292</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3596325379356408</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2010423333148292</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2466499125343932</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.06301578354869523</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.07800631489799899</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.008226297103276891</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.008176485672542824</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0.1022198530899882</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.08665506124432008</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.01868238988019597</v>
       </c>
+      <c r="B15" t="n">
+        <v>0.02695589753023021</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.3496677347171772</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.4036244154493354</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.6568546123233351</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.6488478964810216</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.1183010935448263</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.07863562390646171</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.4419980813124531</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.4195822116113737</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.3168396211686701</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.3467898443532377</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.4635061245107507</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.5337064219450647</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.4145103734692361</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.4192817319970564</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.02391382607094628</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.03618381376271146</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.260708803401308</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.326030357861844</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5166334873744238</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.492050565015991</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.443747940040056</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3860257590419049</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.3129906351882318</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.2942499834532983</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.092827871570549</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.030639423042036</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.176879406946966</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.686085270340403</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>0.9977811547907246</v>
       </c>
+      <c r="B30" t="n">
+        <v>0.965142905670423</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.1598168145072938</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.2246992233461589</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.823436015886382</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.7843652602154243</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.8915251300014139</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.9100058871148673</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.6504743639148228</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6797048748884066</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.8137439916210737</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8008466521657421</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.7574796785154954</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7522427518756689</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7428215458528931</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.725255320649142</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7626434722570516</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.7189995198482038</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5589722060325626</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5663840323053958</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7254836493515955</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7343382325555655</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5716563548458848</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5550826488079144</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7040006529093664</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.6771058842947451</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7289000133994896</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7073435764176282</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6568412306519309</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.6637697425569724</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6152767098234584</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6303503093024357</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.280808095904601</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.28606498749736</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9933001872166179</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9985240308883783</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8899510455151588</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8931648659201764</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.6532884008638121</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6587458580148532</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.06185024582570487</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.05851859617447983</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8816756665063341</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8878024941345092</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8816756665063341</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8878024941345092</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.102011844593709</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.114620358715956</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.2056888600414512</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.2008549705718582</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-1.017679521936941</v>
       </c>
+      <c r="B55" t="n">
+        <v>-1.0192210989668</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.9237169242314447</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.9080489991024606</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.971437848455589</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9381462945588478</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.185618765900811</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.142081707100022</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8983510060640539</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.866513041817719</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5387560360652253</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5075653945589996</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3627529280652958</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3692306399011779</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.269621474706452</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.217607622281926</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7988184844399346</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7624594456434794</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9024344655387532</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9044845088990647</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1603663218379324</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1236732446001867</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8541690763357341</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8025660841616801</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.8699446244936903</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7845681523996909</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.3171415177393752</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3040417462236097</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.2251170848256619</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2251535355371952</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1456377525183181</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1544151644258079</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.07508467623793266</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.06922912467150039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1508541478869574</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1592649206024101</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.455675197302285</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4466575725286778</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2675861058738578</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2530181817640409</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.3908074223347818</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.3885918744649107</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3596325379356408</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3690991585549788</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2466499125343932</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2374145889386449</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.07800631489799899</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.06832904299805047</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.008176485672542824</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.01024573843619881</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.08665506124432008</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.09767730266494998</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>0.02695589753023021</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.03554015468291617</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.4036244154493354</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.4182123011612361</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.6488478964810216</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.6463634593515115</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.07863562390646171</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.050867864187726</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.4195822116113737</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.4182019070579845</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.3467898443532377</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.3586001354007108</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.5337064219450647</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5605837047146707</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.4192817319970564</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.4216504564096156</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.03618381376271146</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.02984816026661184</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.326030357861844</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.319056669188416</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.492050565015991</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4598891472662188</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3860257590419049</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3670980678865449</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.2942499834532983</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.2621466084748486</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.030639423042036</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.991487030393535</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.686085270340403</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.224988178542493</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>0.965142905670423</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.923784986971142</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.2246992233461589</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.2707495582110871</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.7843652602154243</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7504266855551888</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.9100058871148673</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.8844208549016394</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6797048748884066</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.7032468508123622</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8008466521657421</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.800343452240891</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7522427518756689</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.7483092607616741</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.725255320649142</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7198224738286401</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.7189995198482038</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7053106754767264</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5663840323053958</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5701106224081278</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7343382325555655</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7401332273910494</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5550826488079144</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5508581871494762</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.6771058842947451</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6645571692077971</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7073435764176282</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.6986510744487012</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.6637697425569724</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6638463159649135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.6303503093024357</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6316393742209037</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.28606498749736</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.281318576789337</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9985240308883783</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9953210513289173</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8931648659201764</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8891017246582267</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6587458580148532</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6541934193054134</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.05851859617447983</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.05623713313460828</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8878024941345092</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.88181270688059</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8878024941345092</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.88181270688059</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.114620358715956</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.116975934909187</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.2008549705718582</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1947372290805855</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-1.0192210989668</v>
       </c>
+      <c r="C55" t="n">
+        <v>-1.015048157973971</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.9080489991024606</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8977876783020756</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9381462945588478</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9300980938665987</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.142081707100022</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.123637583142322</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.866513041817719</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8511685513275964</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5075653945589996</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4902850983854158</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3692306399011779</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3716943380942198</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.217607622281926</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.203251063982498</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7624594456434794</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.7335006093035624</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9044845088990647</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.8991233070265447</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1236732446001867</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.1057560117175542</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8025660841616801</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7847113697185064</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7845681523996909</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7583261251229748</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3066114102724387</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3171415177393752</v>
+        <v>-0.2909141766055221</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3040417462236097</v>
+        <v>-0.2757346137170916</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2508445338049911</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2251170848256619</v>
+        <v>0.250429317339002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2251535355371952</v>
+        <v>0.2503386379796715</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1726357976299394</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1456377525183181</v>
+        <v>0.1809838537612315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1544151644258079</v>
+        <v>0.1898448635988708</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.0411171769375434</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.07508467623793266</v>
+        <v>-0.0356568537171813</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06922912467150039</v>
+        <v>-0.03069743402202884</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1739346451002729</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1508541478869574</v>
+        <v>0.1826398358552733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1592649206024101</v>
+        <v>0.189986233938121</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4364724120039263</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.455675197302285</v>
+        <v>-0.4282759348613254</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4466575725286778</v>
+        <v>-0.4188081259184758</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3003817713584227</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2675861058738578</v>
+        <v>-0.2750526674036062</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2530181817640409</v>
+        <v>-0.2510779268284625</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.3707575158907507</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3908074223347818</v>
+        <v>-0.3717861371237773</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3885918744649107</v>
+        <v>-0.3701072376973022</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.33383859673292</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3596325379356408</v>
+        <v>0.3472983702021971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3690991585549788</v>
+        <v>0.3587265422777822</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2010423333148292</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2466499125343932</v>
+        <v>-0.1952196377481137</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2374145889386449</v>
+        <v>-0.1880564208480707</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.06301578354869523</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07800631489799899</v>
+        <v>-0.04841202328792223</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06832904299805047</v>
+        <v>-0.0369409108347238</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.008226297103276891</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.008176485672542824</v>
+        <v>0.006802512295449493</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01024573843619881</v>
+        <v>0.005706268408748546</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>0.1022198530899882</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08665506124432008</v>
+        <v>0.1165728043122438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09767730266494998</v>
+        <v>0.1249572479757306</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.01868238988019597</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02695589753023021</v>
+        <v>0.003090940948384968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03554015468291617</v>
+        <v>0.01584046856950461</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.3496677347171772</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4036244154493354</v>
+        <v>0.379763138506495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4182123011612361</v>
+        <v>0.3979898313796012</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.6568546123233351</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6488478964810216</v>
+        <v>0.6600103927671011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6463634593515115</v>
+        <v>0.654067064061202</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.1183010935448263</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07863562390646171</v>
+        <v>0.0831660780375153</v>
       </c>
       <c r="C18" t="n">
-        <v>0.050867864187726</v>
+        <v>0.05046369703599946</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.4419980813124531</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4195822116113737</v>
+        <v>0.43642760268563</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4182019070579845</v>
+        <v>0.4290197685502667</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.3168396211686701</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3467898443532377</v>
+        <v>0.3415487805647693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3586001354007108</v>
+        <v>0.3547297180093819</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.4635061245107507</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5337064219450647</v>
+        <v>0.5126516164589306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5605837047146707</v>
+        <v>0.5479638996118918</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.4145103734692361</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4192817319970564</v>
+        <v>0.424547355049718</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4216504564096156</v>
+        <v>0.426269999648244</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.02391382607094628</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03618381376271146</v>
+        <v>-0.01126124077300952</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02984816026661184</v>
+        <v>-0.005631517867795921</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.260708803401308</v>
       </c>
       <c r="B24" t="n">
-        <v>4.326030357861844</v>
+        <v>4.334097336613688</v>
       </c>
       <c r="C24" t="n">
-        <v>4.319056669188416</v>
+        <v>4.317720391123286</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5166334873744238</v>
       </c>
       <c r="B25" t="n">
-        <v>0.492050565015991</v>
+        <v>0.4934852282346514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4598891472662188</v>
+        <v>0.4668881953821007</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.443747940040056</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3860257590419049</v>
+        <v>0.4275772796777446</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3670980678865449</v>
+        <v>0.4046308426275156</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.3129906351882318</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2942499834532983</v>
+        <v>0.2847042344339095</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2621466084748486</v>
+        <v>0.2586029384636029</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.092827871570549</v>
       </c>
       <c r="B28" t="n">
-        <v>1.030639423042036</v>
+        <v>1.04229764095734</v>
       </c>
       <c r="C28" t="n">
-        <v>0.991487030393535</v>
+        <v>1.002813007074137</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.176879406946966</v>
       </c>
       <c r="B29" t="n">
-        <v>5.686085270340403</v>
+        <v>5.662181268714689</v>
       </c>
       <c r="C29" t="n">
-        <v>5.224988178542493</v>
+        <v>5.170629289836413</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>0.9977811547907246</v>
       </c>
       <c r="B30" t="n">
-        <v>0.965142905670423</v>
+        <v>0.9653505985672939</v>
       </c>
       <c r="C30" t="n">
-        <v>0.923784986971142</v>
+        <v>0.924117484475707</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.1598168145072938</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2246992233461589</v>
+        <v>-0.2184845195128625</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2707495582110871</v>
+        <v>-0.2632749190854577</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.823436015886382</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7843652602154243</v>
+        <v>0.7846543751460326</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7504266855551888</v>
+        <v>0.7495677028461432</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.8915251300014139</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9100058871148673</v>
+        <v>0.8737302907557974</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8844208549016394</v>
+        <v>0.855501533467473</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.6504743639148228</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6797048748884066</v>
+        <v>-0.6682857482188554</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.7032468508123622</v>
+        <v>-0.6844880111018772</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.8137439916210737</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8008466521657421</v>
+        <v>0.8113291412439705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.800343452240891</v>
+        <v>0.8099285809726998</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.7574796785154954</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7522427518756689</v>
+        <v>0.7530154080943274</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7483092607616741</v>
+        <v>0.7509634599418302</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7428215458528931</v>
       </c>
       <c r="B37" t="n">
-        <v>0.725255320649142</v>
+        <v>0.7334962419193686</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7198224738286401</v>
+        <v>0.7275065559500377</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7626434722570516</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7189995198482038</v>
+        <v>0.7422586571568021</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7053106754767264</v>
+        <v>0.7251387680663887</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5589722060325626</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5663840323053958</v>
+        <v>0.564315474342054</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5701106224081278</v>
+        <v>0.5702895628981168</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7254836493515955</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7343382325555655</v>
+        <v>0.7337100851847743</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7401332273910494</v>
+        <v>0.7413699042840771</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5716563548458848</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5550826488079144</v>
+        <v>0.5661099619036586</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5508581871494762</v>
+        <v>0.5624140041041261</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7040006529093664</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6771058842947451</v>
+        <v>0.6848554698128246</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6645571692077971</v>
+        <v>0.6703943901995139</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7289000133994896</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7073435764176282</v>
+        <v>0.7175126490592517</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6986510744487012</v>
+        <v>0.7083885862451348</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6568412306519309</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6637697425569724</v>
+        <v>0.6565737711511859</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6638463159649135</v>
+        <v>0.6579767609369422</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6152767098234584</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6303503093024357</v>
+        <v>0.6153639377726098</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6316393742209037</v>
+        <v>0.6191152717822307</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.280808095904601</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.28606498749736</v>
+        <v>-1.277621360328754</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.281318576789337</v>
+        <v>-1.270880536667543</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9933001872166179</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9985240308883783</v>
+        <v>-0.99184933780554</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9953210513289173</v>
+        <v>-0.9871065606551556</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8899510455151588</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8931648659201764</v>
+        <v>-0.887860921688258</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8891017246582267</v>
+        <v>-0.8816908956008629</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.6532884008638121</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6587458580148532</v>
+        <v>-0.6502216361091679</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6541934193054134</v>
+        <v>-0.6441782177273736</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.06185024582570487</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05851859617447983</v>
+        <v>-0.05898409078580606</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05623713313460828</v>
+        <v>-0.05502435637365417</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8816756665063341</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8878024941345092</v>
+        <v>-0.8764437831433545</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.88181270688059</v>
+        <v>-0.8678832629530725</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8816756665063341</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8878024941345092</v>
+        <v>-0.8764437831433545</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.88181270688059</v>
+        <v>-0.8678832629530725</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.102011844593709</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.114620358715956</v>
+        <v>-1.109071977712408</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.116975934909187</v>
+        <v>-1.110153319826916</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.2056888600414512</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2008549705718582</v>
+        <v>-0.1989048519688044</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1947372290805855</v>
+        <v>-0.1908628337365867</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-1.017679521936941</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.0192210989668</v>
+        <v>-1.01369646402942</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.015048157973971</v>
+        <v>-1.006858221511667</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.9237169242314447</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9080489991024606</v>
+        <v>-0.9102532362208542</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8977876783020756</v>
+        <v>-0.8966458885303238</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.971437848455589</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9381462945588478</v>
+        <v>-0.9569878829587767</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9300980938665987</v>
+        <v>-0.9436111128636898</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.185618765900811</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.142081707100022</v>
+        <v>-1.155999245559128</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.123637583142322</v>
+        <v>-1.129488322093305</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8983510060640539</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.866513041817719</v>
+        <v>-0.8755454492962101</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8511685513275964</v>
+        <v>-0.8533938298445864</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5387560360652253</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5075653945589996</v>
+        <v>-0.5123768353802537</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4902850983854158</v>
+        <v>-0.4888985070244863</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3627529280652958</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3692306399011779</v>
+        <v>0.366436512377399</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3716943380942198</v>
+        <v>0.3702423988900625</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.269621474706452</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.217607622281926</v>
+        <v>-1.247693151957668</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.203251063982498</v>
+        <v>-1.227488952603415</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7988184844399346</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7624594456434794</v>
+        <v>-0.758098723716701</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7335006093035624</v>
+        <v>-0.7198624288737678</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9024344655387532</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9044845088990647</v>
+        <v>-0.8966681281711343</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8991233070265447</v>
+        <v>-0.8878765045190393</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1603663218379324</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1236732446001867</v>
+        <v>-0.1328292803076666</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1057560117175542</v>
+        <v>-0.1086031543723337</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8541690763357341</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8025660841616801</v>
+        <v>-0.8236383263975512</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7847113697185064</v>
+        <v>-0.7976715977463904</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.8699446244936903</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7845681523996909</v>
+        <v>-0.8255639498988997</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7583261251229748</v>
+        <v>-0.7891681206752141</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3066114102724387</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2909141766055221</v>
+        <v>-0.3171415177393752</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2757346137170916</v>
+        <v>-0.3040417462236097</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.291644377748045</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2803157617148355</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2508445338049911</v>
       </c>
       <c r="B3" t="n">
-        <v>0.250429317339002</v>
+        <v>0.2251170848256619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2503386379796715</v>
+        <v>0.2251535355371952</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2258924693243424</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2268734438303079</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1726357976299394</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1809838537612315</v>
+        <v>0.1456377525183181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1898448635988708</v>
+        <v>0.1544151644258079</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1634582775498603</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1721354018535958</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.0411171769375434</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0356568537171813</v>
+        <v>-0.07508467623793266</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03069743402202884</v>
+        <v>-0.06922912467150039</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06389751015466108</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05931101797720713</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1739346451002729</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1826398358552733</v>
+        <v>0.1508541478869574</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189986233938121</v>
+        <v>0.1592649206024101</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666633624084359</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1728513362613026</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4364724120039263</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4282759348613254</v>
+        <v>-0.455675197302285</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4188081259184758</v>
+        <v>-0.4466575725286778</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4374948230304833</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.428624097317399</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3003817713584227</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2750526674036062</v>
+        <v>-0.2675861058738578</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2510779268284625</v>
+        <v>-0.2530181817640409</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2387230257345911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2252340431466514</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.3707575158907507</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3717861371237773</v>
+        <v>-0.3908074223347818</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3701072376973022</v>
+        <v>-0.3885918744649107</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3847800886814022</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3799580678948297</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.33383859673292</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3472983702021971</v>
+        <v>0.3596325379356408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3587265422777822</v>
+        <v>0.3690991585549788</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.377416046792225</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3843099641951215</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2010423333148292</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1952196377481137</v>
+        <v>-0.2466499125343932</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1880564208480707</v>
+        <v>-0.2374145889386449</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2283606933100192</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2199436261761657</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.06301578354869523</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.04841202328792223</v>
+        <v>-0.07800631489799899</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0369409108347238</v>
+        <v>-0.06832904299805047</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06072853088561912</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.05501965891714022</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.008226297103276891</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006802512295449493</v>
+        <v>-0.008176485672542824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005706268408748546</v>
+        <v>-0.01024573843619881</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01171705321852328</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01295245704035458</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>0.1022198530899882</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1165728043122438</v>
+        <v>0.08665506124432008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1249572479757306</v>
+        <v>0.09767730266494998</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.105062170142916</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1095508428675377</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.01868238988019597</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003090940948384968</v>
+        <v>0.02695589753023021</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01584046856950461</v>
+        <v>0.03554015468291617</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03950052157395213</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04001126288311345</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.3496677347171772</v>
       </c>
       <c r="B16" t="n">
-        <v>0.379763138506495</v>
+        <v>0.4036244154493354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3979898313796012</v>
+        <v>0.4182123011612361</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.426667308028124</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4304674828948816</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.6568546123233351</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6600103927671011</v>
+        <v>0.6488478964810216</v>
       </c>
       <c r="C17" t="n">
-        <v>0.654067064061202</v>
+        <v>0.6463634593515115</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6397009750300002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6301036481976009</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.1183010935448263</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0831660780375153</v>
+        <v>0.07863562390646171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05046369703599946</v>
+        <v>0.050867864187726</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02598052180645262</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.003800673892381534</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.4419980813124531</v>
       </c>
       <c r="B19" t="n">
-        <v>0.43642760268563</v>
+        <v>0.4195822116113737</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4290197685502667</v>
+        <v>0.4182019070579845</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4154713097687464</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4115980141863978</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.3168396211686701</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3415487805647693</v>
+        <v>0.3467898443532377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3547297180093819</v>
+        <v>0.3586001354007108</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3642587293248287</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.365298131682758</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.4635061245107507</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5126516164589306</v>
+        <v>0.5337064219450647</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5479638996118918</v>
+        <v>0.5605837047146707</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5795560394245626</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5920223842420665</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.4145103734692361</v>
       </c>
       <c r="B22" t="n">
-        <v>0.424547355049718</v>
+        <v>0.4192817319970564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.426269999648244</v>
+        <v>0.4216504564096156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4198413741633195</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4149427765125479</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.02391382607094628</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01126124077300952</v>
+        <v>-0.03618381376271146</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.005631517867795921</v>
+        <v>-0.02984816026661184</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.02762348792757056</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.02851268401638681</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.260708803401308</v>
       </c>
       <c r="B24" t="n">
-        <v>4.334097336613688</v>
+        <v>4.326030357861844</v>
       </c>
       <c r="C24" t="n">
-        <v>4.317720391123286</v>
+        <v>4.319056669188416</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.253385329351993</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.144565729608261</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5166334873744238</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4934852282346514</v>
+        <v>0.492050565015991</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4668881953821007</v>
+        <v>0.4598891472662188</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4331238609730279</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4105244079658265</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.443747940040056</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4275772796777446</v>
+        <v>0.3860257590419049</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4046308426275156</v>
+        <v>0.3670980678865449</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3487579803555776</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.331080465229419</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.3129906351882318</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2847042344339095</v>
+        <v>0.2942499834532983</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2586029384636029</v>
+        <v>0.2621466084748486</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.234674336632878</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2102714291201903</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.092827871570549</v>
       </c>
       <c r="B28" t="n">
-        <v>1.04229764095734</v>
+        <v>1.030639423042036</v>
       </c>
       <c r="C28" t="n">
-        <v>1.002813007074137</v>
+        <v>0.991487030393535</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9610564509519863</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9354775223652831</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.176879406946966</v>
       </c>
       <c r="B29" t="n">
-        <v>5.662181268714689</v>
+        <v>5.686085270340403</v>
       </c>
       <c r="C29" t="n">
-        <v>5.170629289836413</v>
+        <v>5.224988178542493</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.79906475202811</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.409204672351636</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>0.9977811547907246</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9653505985672939</v>
+        <v>0.965142905670423</v>
       </c>
       <c r="C30" t="n">
-        <v>0.924117484475707</v>
+        <v>0.923784986971142</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8877063190965784</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.855988279479129</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.1598168145072938</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2184845195128625</v>
+        <v>-0.2246992233461589</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2632749190854577</v>
+        <v>-0.2707495582110871</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.3067469171251993</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3354843502624525</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.823436015886382</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7846543751460326</v>
+        <v>0.7843652602154243</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7495677028461432</v>
+        <v>0.7504266855551888</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7220160779612326</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6974390202878871</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.8915251300014139</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8737302907557974</v>
+        <v>0.9100058871148673</v>
       </c>
       <c r="C33" t="n">
-        <v>0.855501533467473</v>
+        <v>0.8844208549016394</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.863580810902531</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8459464034106425</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.6504743639148228</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6682857482188554</v>
+        <v>-0.6797048748884066</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6844880111018772</v>
+        <v>-0.7032468508123622</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.7218037139361796</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7368140142040426</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.8137439916210737</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8113291412439705</v>
+        <v>0.8008466521657421</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8099285809726998</v>
+        <v>0.800343452240891</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8008870183887973</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8015653773189956</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.7574796785154954</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7530154080943274</v>
+        <v>0.7522427518756689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7509634599418302</v>
+        <v>0.7483092607616741</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7467920166938515</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7464495457261444</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7428215458528931</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7334962419193686</v>
+        <v>0.725255320649142</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7275065559500377</v>
+        <v>0.7198224738286401</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7170416746796945</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.71564121926974</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7626434722570516</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7422586571568021</v>
+        <v>0.7189995198482038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7251387680663887</v>
+        <v>0.7053106754767264</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6944415201437384</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6853932015980665</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5589722060325626</v>
       </c>
       <c r="B39" t="n">
-        <v>0.564315474342054</v>
+        <v>0.5663840323053958</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5702895628981168</v>
+        <v>0.5701106224081278</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5745964938653605</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5789574463301435</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7254836493515955</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7337100851847743</v>
+        <v>0.7343382325555655</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7413699042840771</v>
+        <v>0.7401332273910494</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7459332016200764</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7509735553210193</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5716563548458848</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5661099619036586</v>
+        <v>0.5550826488079144</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5624140041041261</v>
+        <v>0.5508581871494762</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5486856884849532</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5475857123802477</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7040006529093664</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6848554698128246</v>
+        <v>0.6771058842947451</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6703943901995139</v>
+        <v>0.6645571692077971</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6554664128341929</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6485338827807091</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7289000133994896</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7175126490592517</v>
+        <v>0.7073435764176282</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7083885862451348</v>
+        <v>0.6986510744487012</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6923441292037344</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6874174817595955</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6568412306519309</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6565737711511859</v>
+        <v>0.6637697425569724</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6579767609369422</v>
+        <v>0.6638463159649135</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6655216730290923</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6677474596245438</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6152767098234584</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6153639377726098</v>
+        <v>0.6303503093024357</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6191152717822307</v>
+        <v>0.6316393742209037</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6355093236849141</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6404919044044228</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.280808095904601</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.277621360328754</v>
+        <v>-1.28606498749736</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.270880536667543</v>
+        <v>-1.281318576789337</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.27586495541497</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.270040349946611</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9933001872166179</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.99184933780554</v>
+        <v>-0.9985240308883783</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9871065606551556</v>
+        <v>-0.9953210513289173</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9912822502027138</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9868107119277745</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8899510455151588</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.887860921688258</v>
+        <v>-0.8931648659201764</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8816908956008629</v>
+        <v>-0.8891017246582267</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8836044856295788</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8773203593483833</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.6532884008638121</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6502216361091679</v>
+        <v>-0.6587458580148532</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6441782177273736</v>
+        <v>-0.6541934193054134</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6486546449944572</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6427025874187626</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.06185024582570487</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05898409078580606</v>
+        <v>-0.05851859617447983</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05502435637365417</v>
+        <v>-0.05623713313460828</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.05347623463888525</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05075959431968712</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8816756665063341</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8764437831433545</v>
+        <v>-0.8878024941345092</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8678832629530725</v>
+        <v>-0.88181270688059</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8747617565870891</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8672481028329181</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8816756665063341</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8764437831433545</v>
+        <v>-0.8878024941345092</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8678832629530725</v>
+        <v>-0.88181270688059</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8747617565870891</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8672481028329181</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.102011844593709</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.109071977712408</v>
+        <v>-1.114620358715956</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.110153319826916</v>
+        <v>-1.116975934909187</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.116815806966988</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.114871712192338</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.2056888600414512</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1989048519688044</v>
+        <v>-0.2008549705718582</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1908628337365867</v>
+        <v>-0.1947372290805855</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1882734008913984</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1820128069211368</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-1.017679521936941</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.01369646402942</v>
+        <v>-1.0192210989668</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.006858221511667</v>
+        <v>-1.015048157973971</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.010221175374169</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.00510704194382</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.9237169242314447</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9102532362208542</v>
+        <v>-0.9080489991024606</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8966458885303238</v>
+        <v>-0.8977876783020756</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8885832658536043</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8804858252887116</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.971437848455589</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9569878829587767</v>
+        <v>-0.9381462945588478</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9436111128636898</v>
+        <v>-0.9300980938665987</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9232693827135859</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9174869799337892</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.185618765900811</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.155999245559128</v>
+        <v>-1.142081707100022</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.129488322093305</v>
+        <v>-1.123637583142322</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.107984300774948</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.094755940194904</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8983510060640539</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8755454492962101</v>
+        <v>-0.866513041817719</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8533938298445864</v>
+        <v>-0.8511685513275964</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.836862266073065</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8237826303203279</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5387560360652253</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5123768353802537</v>
+        <v>-0.5075653945589996</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4888985070244863</v>
+        <v>-0.4902850983854158</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4751437649096459</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4621057241465001</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3627529280652958</v>
       </c>
       <c r="B61" t="n">
-        <v>0.366436512377399</v>
+        <v>0.3692306399011779</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3702423988900625</v>
+        <v>0.3716943380942198</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3745374886554746</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.377174682581613</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.269621474706452</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.247693151957668</v>
+        <v>-1.217607622281926</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.227488952603415</v>
+        <v>-1.203251063982498</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.191225051707048</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.181110987235549</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7988184844399346</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.758098723716701</v>
+        <v>-0.7624594456434794</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7198624288737678</v>
+        <v>-0.7335006093035624</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7068733547044074</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6828154500169004</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9024344655387532</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8966681281711343</v>
+        <v>-0.9044845088990647</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8878765045190393</v>
+        <v>-0.8991233070265447</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.892690924503508</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8856952084076489</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1603663218379324</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1328292803076666</v>
+        <v>-0.1236732446001867</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1086031543723337</v>
+        <v>-0.1057560117175542</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.0900461125683942</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.0766328719526629</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8541690763357341</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8236383263975512</v>
+        <v>-0.8025660841616801</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7976715977463904</v>
+        <v>-0.7847113697185064</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7703223723821625</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7588869234675441</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.8699446244936903</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8255639498988997</v>
+        <v>-0.7845681523996909</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7891681206752141</v>
+        <v>-0.7583261251229748</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7377665429980237</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7219602109232565</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2803157617148355</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2701063059116936</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2268734438303079</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2280281725299249</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1721354018535958</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1803184923056798</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05931101797720713</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05541531880999982</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1728513362613026</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.177996454977279</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.428624097317399</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4202319085548274</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2252340431466514</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2126803503987046</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.3799580678948297</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3744854123022642</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3843099641951215</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.389968166822609</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2199436261761657</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2122606285785671</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.05501965891714022</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.05088857516472126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.01295245704035458</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01401989546371264</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1095508428675377</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1117931404385433</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.04001126288311345</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.03793239779423371</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4304674828948816</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4307660421181259</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.6301036481976009</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6185808260708112</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.003800673892381534</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.01584106784308922</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4115980141863978</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4069406767961679</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.365298131682758</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.3628910791598658</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.5920223842420665</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5993470275316258</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4149427765125479</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4078778480218582</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.02851268401638681</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.0317228649291271</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.144565729608261</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.005051899014666</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4105244079658265</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3914002392170954</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.331080465229419</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3141849335508364</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.2102714291201903</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1884124498932685</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>0.9354775223652831</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9134752849949048</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.409204672351636</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.055162683241934</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.855988279479129</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8280461891005884</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3354843502624525</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3584651360057534</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.6974390202878871</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6760642929195081</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8459464034106425</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8309398823942196</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7368140142040426</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7491522280328581</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.8015653773189956</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8023186960027483</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.7464495457261444</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7469797769055866</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.71564121926974</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7152894358813111</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6853932015980665</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6779095763641451</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5789574463301435</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5830962699623757</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7509735553210193</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7553170397771656</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5475857123802477</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5473180637239604</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6485338827807091</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6433459874299108</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6874174817595955</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6836337779351034</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6677474596245438</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6703221765735676</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6404919044044228</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6461588141417339</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.270040349946611</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.264245104974463</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9868107119277745</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9822607585908774</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8773203593483833</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8707321026791097</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.6427025874187626</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.636693260773677</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05075959431968712</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.04821660972142572</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8672481028329181</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8596893589168916</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8672481028329181</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8596893589168916</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.114871712192338</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.111804246313445</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1820128069211368</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1761340932943571</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.00510704194382</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.000044878838989</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8804858252887116</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8735339668735883</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9174869799337892</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9127419652655933</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.094755940194904</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.08377388422708</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8237826303203279</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8120406871164259</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4621057241465001</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4510123926306517</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.377174682581613</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3795719061095798</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.181110987235549</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.172798421903596</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6828154500169004</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6613110984769224</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8856952084076489</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8785541440805061</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.0766328719526629</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06530275033963039</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7588869234675441</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7500313419535223</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7219602109232565</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7101970838363342</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2701063059116936</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2610215579832653</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2280281725299249</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2292788395676521</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1803184923056798</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1879176284475362</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05541531880999982</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.05216561932155188</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.177996454977279</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.1822312864573989</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4202319085548274</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4124479186251004</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.2126803503987046</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2011369991585716</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3744854123022642</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3686709212170775</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.389968166822609</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.3945483439877091</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2122606285785671</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.2053614565661542</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.05088857516472126</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.04809039393870496</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01401989546371264</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01497984517554636</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1117931404385433</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.112266258222842</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.03793239779423371</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.03389580878912692</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4307660421181259</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.4284011034352471</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6185808260708112</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6058476210273249</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>-0.01584106784308922</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.033164660785144</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.4069406767961679</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4017461865795436</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.3628910791598658</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.3579011827142015</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.5993470275316258</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6026053504721642</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4078778480218582</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.3993179641137666</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>-0.0317228649291271</v>
       </c>
+      <c r="G23" t="n">
+        <v>-0.03665557457357886</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.005051899014666</v>
       </c>
+      <c r="G24" t="n">
+        <v>3.844970280081254</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.3914002392170954</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3752799952131048</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.3141849335508364</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2981985300530047</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.1884124498932685</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1688555956342823</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9134752849949048</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.8944872097288704</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.055162683241934</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.735922010699604</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.8280461891005884</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.8035079265275283</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3584651360057534</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3767142269709073</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6760642929195081</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6575058938430894</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.8309398823942196</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8181987083705138</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7491522280328581</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7593389854431463</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.8023186960027483</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.8031219226534777</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7469797769055866</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7481671526463842</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.7152894358813111</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.715746987984923</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6779095763641451</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6717774528216754</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5830962699623757</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.5869676728144411</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7553170397771656</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7590468337818028</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.5473180637239604</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5476959494090323</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6433459874299108</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6395869744153687</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6836337779351034</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.680802621754759</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6703221765735676</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6731081961587483</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6461588141417339</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6522174086745243</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.264245104974463</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.258754720736537</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.9822607585908774</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9778799031577096</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8707321026791097</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.864186609197911</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.636693260773677</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6308784095518852</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.04821660972142572</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.04592806490275268</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8596893589168916</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8523757458406348</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8596893589168916</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8523757458406348</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.111804246313445</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.108108468921212</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.1761340932943571</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1707502464032337</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.000044878838989</v>
       </c>
+      <c r="G55" t="n">
+        <v>-0.9952690396976441</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8735339668735883</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.8677152474284971</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.9127419652655933</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.9090099065146765</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.08377388422708</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.074851256505306</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8120406871164259</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8016770058613322</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4510123926306517</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4417041981878409</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3795719061095798</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3817115888786284</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.172798421903596</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.16617515285667</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6613110984769224</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6422794179626967</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8785541440805061</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8715783141518003</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06530275033963039</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.0558514595547033</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7500313419535223</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7434249000394538</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.7101970838363342</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.701859727964698</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2610215579832653</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2530380525710145</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2292788395676521</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2305566203089819</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1879176284475362</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.1948755731138669</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.05216561932155188</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.04951691076967728</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.1822312864573989</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.1856705842184157</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4124479186251004</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4053562149258804</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2011369991585716</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1906387555196891</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3686709212170775</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3627639388310624</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.3945483439877091</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.3981900343620041</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.2053614565661542</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.1992635929328688</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.04809039393870496</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.04641733469846722</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01497984517554636</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01588163464313573</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.112266258222842</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1113521784370756</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.03389580878912692</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.02840268287462823</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.4284011034352471</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.424033743470505</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6058476210273249</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.5924465652830971</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>-0.033164660785144</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.04839797087071133</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4017461865795436</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.3962020216851007</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.3579011827142015</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.351011691296526</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6026053504721642</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.602682441604007</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.3993179641137666</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.3897836466342513</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>-0.03665557457357886</v>
       </c>
+      <c r="H23" t="n">
+        <v>-0.04283304151157961</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>3.844970280081254</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.672507775557299</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3752799952131048</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.3617798785157966</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2981985300530047</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2832162215696808</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1688555956342823</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1514352887449439</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.8944872097288704</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.8781735023594097</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.735922010699604</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.449952819657408</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.8035079265275283</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7820650774106023</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3767142269709073</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.3910369423606275</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6575058938430894</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6414607102548304</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8181987083705138</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8074392836171076</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7593389854431463</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7677511871239836</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.8031219226534777</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.8039602078075613</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7481671526463842</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7498417726950489</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.715746987984923</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.7168233936768467</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6717774528216754</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6668088632186503</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.5869676728144411</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.59054929677944</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7590468337818028</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7622444099567202</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5476959494090323</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5485658783899293</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6395869744153687</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.6369956119538615</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.680802621754759</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6787616503333969</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6731081961587483</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6760017676155949</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6522174086745243</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6584494127417374</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.258754720736537</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.253759446711403</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9778799031577096</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9738423531987244</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.864186609197911</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8579358914103969</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6308784095518852</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6254369842186638</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.04592806490275268</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.04394450581355343</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8523757458406348</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8455116548619995</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8523757458406348</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8455116548619995</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.108108468921212</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.104161390692032</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1707502464032337</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.1659307468024032</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-0.9952690396976441</v>
       </c>
+      <c r="H55" t="n">
+        <v>-0.9909413320159502</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.8677152474284971</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.8629872918456954</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.9090099065146765</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.9062482131099814</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.074851256505306</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.067796913922279</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8016770058613322</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.7926854641895729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4417041981878409</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.4340204013632228</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3817115888786284</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3835865660050603</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.16617515285667</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.161118207453667</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6422794179626967</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.6256000661842233</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8715783141518003</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.8649947468350597</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.0558514595547033</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04808290610068687</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7434249000394538</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7387668001631519</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.701859727964698</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6964033109297957</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2530380525710145</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2461119344680573</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.2305566203089819</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.231806602187363</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.1948755731138669</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2011627731695995</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.04951691076967728</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.04742177258060106</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.1856705842184157</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.1884175247615554</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4053562149258804</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3990040628236868</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1906387555196891</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1811890059768892</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3627639388310624</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3569578757241575</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.3981900343620041</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4010192681623098</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.1992635929328688</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1939606214131082</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.04641733469846722</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.04568743843691932</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01588163464313573</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01676316186921797</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1113521784370756</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.1093672663283125</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.02840268287462823</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.02186185952802389</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.424033743470505</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.4182020013451712</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.5924465652830971</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.5787985777290144</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.04839797087071133</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.06176133455868051</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.3962020216851007</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.3904568143084669</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.351011691296526</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.34277724930165</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.602682441604007</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.6003163488798886</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.3897836466342513</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.3796870826986132</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>-0.04283304151157961</v>
       </c>
+      <c r="I23" t="n">
+        <v>-0.04986704255246174</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.672507775557299</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.494201162336266</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.3617798785157966</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3505635016976089</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2832162215696808</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.269295697909211</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1514352887449439</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1360017173384976</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.8781735023594097</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8642657552383632</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.449952819657408</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.195380786797834</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7820650774106023</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7634316689238376</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.3910369423606275</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.4021064300254392</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6414607102548304</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6276604647017204</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8074392836171076</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7984159687658374</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7677511871239836</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7746919132754908</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.8039602078075613</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.8048226875966169</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7498417726950489</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7518656504488842</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.7168233936768467</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.7183623851276348</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6668088632186503</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6628364425886304</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.59054929677944</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5938322725533659</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7622444099567202</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7649844305088261</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5485658783899293</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5498006438049629</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.6369956119538615</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.6353505522863105</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6787616503333969</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6773708454027102</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6760017676155949</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.678922845502834</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6584494127417374</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6646881414485774</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.253759446711403</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.249385890150467</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9738423531987244</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.9702671272001786</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8579358914103969</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8521592579878419</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6254369842186638</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6204922196699812</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.04394450581355343</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.04229453373315462</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8455116548619995</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8392371538827847</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8455116548619995</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8392371538827847</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.104161390692032</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.100247981346819</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.1659307468024032</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1617127539349302</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-0.9909413320159502</v>
       </c>
+      <c r="I55" t="n">
+        <v>-0.987168900774371</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.8629872918456954</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8592888657362451</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.9062482131099814</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.9043995068278784</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.067796913922279</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.062420472692462</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.7926854641895729</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7850270241799867</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.4340204013632228</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.4278014635055526</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3835865660050603</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3851978841682616</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.161118207453667</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.157495863335095</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.6256000661842233</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.6111276431021078</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.8649947468350597</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8589633670733789</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04808290610068687</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.04180997423682811</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7387668001631519</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.735782776322178</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6964033109297957</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6933471189725728</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2461119344680573</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.2401851332915967</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.231806602187363</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2329874972809237</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2011627731695995</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2067719897492245</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.04742177258060106</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.04583098715025603</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.1884175247615554</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.1905656077569118</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3990040628236868</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.3934094895848637</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1811890059768892</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1727670675535701</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3569578757241575</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3513974550761628</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4010192681623098</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4031500465404466</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1939606214131082</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1894283839061552</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.04568743843691932</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.04574032370369426</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01676316186921797</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01765221409461044</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.1093672663283125</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.1065755974928046</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.02186185952802389</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.01460828289539563</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.4182020013451712</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.4113463597251762</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.5787985777290144</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.5652291868609501</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.06176133455868051</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.07346185185885773</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.3904568143084669</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.3846294935114415</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.34277724930165</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.333649462987789</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.6003163488798886</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.5961219241740539</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.3796870826986132</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.3693542222726914</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>-0.04986704255246174</v>
       </c>
+      <c r="J23" t="n">
+        <v>-0.05744236220530871</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.494201162336266</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.315181828515916</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3505635016976089</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3413292463616786</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.269295697909211</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2564613733394277</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1360017173384976</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.122405526021193</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8642657552383632</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8525219606194619</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.195380786797834</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.97011194669042</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7634316689238376</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.747334640042837</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.4021064300254392</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4104970584498667</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.6276604647017204</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.615858103660945</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7984159687658374</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7909084169647719</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7746919132754908</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.7804153531362221</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.8048226875966169</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.8057004962513377</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7518656504488842</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.754126168320943</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.7183623851276348</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.7202350337079453</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6628364425886304</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6597113841561602</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5938322725533659</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5968168249884648</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7649844305088261</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.767333546974778</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5498006438049629</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5512951872971432</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.6353505522863105</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.6344634554962987</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.6773708454027102</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6765095464962666</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.678922845502834</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6818099068931257</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6646881414485774</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6708069261779889</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.249385890150467</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.245711141329044</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.9702671272001786</v>
       </c>
+      <c r="J47" t="n">
+        <v>-0.9672300058990274</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8521592579878419</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8469782421692416</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6204922196699812</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.6161233145227298</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.04229453373315462</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.04099012010057314</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8392371538827847</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8336419272785609</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8392371538827847</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8336419272785609</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.100247981346819</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.096578703543338</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1617127539349302</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1581087180050844</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-0.987168900774371</v>
       </c>
+      <c r="J55" t="n">
+        <v>-0.9840162227138843</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8592888657362451</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8565467637257592</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.9043995068278784</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.9033959195619216</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.062420472692462</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.058536401933518</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7850270241799867</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.778639244584298</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.4278014635055526</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4228918789460197</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3851978841682616</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3865528715729477</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.157495863335095</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.155171752279145</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.6111276431021078</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.5987015571666441</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8589633670733789</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.853589875866635</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.04180997423682811</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03685607023040659</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.735782776322178</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7342241064694118</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6933471189725728</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6922691944497981</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.2401851332915967</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2351901519212342</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2329874972809237</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.2340698924084759</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2067719897492245</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.21171335173341</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.04583098715025603</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.04469477887428316</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.1905656077569118</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.192199319094713</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.3934094895848637</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.3885677996935348</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1727670675535701</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1653342947755644</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3513974550761628</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.3461864647650013</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4031500465404466</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4046849753667882</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1894283839061552</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1856298614138974</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.04574032370369426</v>
       </c>
+      <c r="K12" t="n">
+        <v>-0.04643503657596033</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01765221409461044</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.0185681276425825</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.1065755974928046</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.1031968983958818</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.01460828289539563</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.006914677326896809</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.4113463597251762</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.4038255296456524</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.5652291868609501</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.5519858400747134</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.07346185185885773</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.0836912209146119</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.3846294935114415</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.3788145718192425</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.333649462987789</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.3239934238106081</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.5961219241740539</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.5906079003677043</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.3693542222726914</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.3590395664243493</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>-0.05744236220530871</v>
       </c>
+      <c r="K23" t="n">
+        <v>-0.0653054134186874</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.315181828515916</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.139391754765045</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3413292463616786</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3338058660146744</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2564613733394277</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2447104430499427</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.122405526021193</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1104961534458644</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8525219606194619</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8427147464730816</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.97011194669042</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.771929996423683</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.747334640042837</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.7335133773089809</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4104970584498667</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4167005247602266</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.615858103660945</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.605824565464827</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7909084169647719</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7847175281645213</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.7804153531362221</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.7851373341202443</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.8057004962513377</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.8065861039452561</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.754126168320943</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7565319693740007</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.7202350337079453</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.7223354759892492</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6597113841561602</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6573020662541152</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5968168249884648</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5995096904699747</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.767333546974778</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7693504738077828</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5512951872971432</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5529634911318765</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.6344634554962987</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.6341746298887909</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6765095464962666</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6760743045240312</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6818099068931257</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6846165433708711</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6708069261779889</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6767115583155234</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.245711141329044</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.242773498826881</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-0.9672300058990274</v>
       </c>
+      <c r="K47" t="n">
+        <v>-0.9647726699616695</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8469782421692416</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8424681954386906</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.6161233145227298</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6123745522208734</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.04099012010057314</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.04003057756994439</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8336419272785609</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8287758485839375</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8336419272785609</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8287758485839375</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.096578703543338</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.093303240025012</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1581087180050844</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.155112253906829</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-0.9840162227138843</v>
       </c>
+      <c r="K55" t="n">
+        <v>-0.9815143389944095</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8565467637257592</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.854680711830755</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.9033959195619216</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.9031630706126591</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.058536401933518</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.055967127629874</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.778639244584298</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7734435473233062</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4228918789460197</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4191425953487394</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3865528715729477</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.3876634810936035</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.155171752279145</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.154008864168492</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.5987015571666441</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5881533982267538</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.853589875866635</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8489364837570349</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03685607023040659</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.03305644225764962</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7342241064694118</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7338669690040392</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6922691944497981</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6928016879364868</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2351901519212342</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2310538694677866</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.2340698924084759</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2350342422018869</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.21171335173341</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2160100560770364</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.04469477887428316</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.04396400739966115</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.192199319094713</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.1933945213306789</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.3885677996935348</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3844571043392552</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1653342947755644</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1588391665153639</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.3461864647650013</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3413949951239967</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4046849753667882</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4057157646742836</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1856298614138974</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1825191333269107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>-0.04643503657596033</v>
       </c>
+      <c r="L12" t="n">
+        <v>-0.04764845918348458</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.0185681276425825</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01952338492941321</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.1031968983958818</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.0994125531115162</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.006914677326896809</v>
       </c>
+      <c r="L15" t="n">
+        <v>-0.000999382774436175</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.4038255296456524</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.3959285360355494</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.5519858400747134</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.5392513988801608</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.0836912209146119</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.0926250309256581</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.3788145718192425</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.3730860024116555</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.3239934238106081</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.3141006489579702</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.5906079003677043</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.5841911556829854</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.3590395664243493</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.3489378471552134</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>-0.0653054134186874</v>
       </c>
+      <c r="L23" t="n">
+        <v>-0.07325502793672613</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.139391754765045</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.969775585131887</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3338058660146744</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3277503640203415</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2447104430499427</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.2340188796550057</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1104961534458644</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.1001238307663366</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8427147464730816</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8346294956362674</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.771929996423683</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.598572824438623</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.7335133773089809</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.7217213596050341</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4167005247602266</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4211363374821697</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.605824565464827</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5973483573064531</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7847175281645213</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.779663856844786</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.7851373341202443</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.7890411627635712</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.8065861039452561</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.8074730633710288</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7565319693740007</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7590097859819962</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.7223354759892492</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.7245776166569428</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6573020662541152</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6554927996469762</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5995096904699747</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.6019222998366168</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7693504738077828</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7710864816770517</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5529634911318765</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.5547359324548476</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.6341746298887909</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.6343495584526742</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6760743045240312</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6759770229049161</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6846165433708711</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6873088090355129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6767115583155234</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6823344508020991</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.242773498826881</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.240581179644661</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-0.9647726699616695</v>
       </c>
+      <c r="L47" t="n">
+        <v>-0.9629101583461956</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8424681954386906</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8386678599989814</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6123745522208734</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6092628256865733</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.04003057756994439</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.03940573806599419</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8287758485839375</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.824657594446546</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8287758485839375</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.824657594446546</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.093303240025012</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.090521956066359</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.155112253906829</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.1527029081484139</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-0.9815143389944095</v>
       </c>
+      <c r="L55" t="n">
+        <v>-0.9796683944187731</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.854680711830755</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.853607070338771</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.9031630706126591</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.9036233952253926</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.055967127629874</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.054545242127962</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7734435473233062</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7693509761226712</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4191425953487394</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4164128261475032</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.3876634810936035</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3885449013921957</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.154008864168492</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.15387285722834</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5881533982267538</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5793126018268955</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8489364837570349</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8450310157486193</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.03305644225764962</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.03025903869102762</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7338669690040392</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7345115862530909</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6928016879364868</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6946262903675569</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2310538694677866</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2277005537630428</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2350342422018869</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2358689811074379</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2160100560770364</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2196947396932978</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.04396400739966115</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.04359113597762895</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.1933945213306789</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.1942188488995679</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3844571043392552</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3810429522371293</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1588391665153639</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1532214774189141</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3413949951239967</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.3370658698982356</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4057157646742836</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4063237848068585</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1825191333269107</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1800445856673102</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>-0.04764845918348458</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.04927383243647109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01952338492941321</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.02052503132568259</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.0994125531115162</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.09537074515925442</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>-0.000999382774436175</v>
       </c>
+      <c r="M15" t="n">
+        <v>-0.008959705038567564</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.3959285360355494</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.3878849879075631</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.5392513988801608</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.5271554766835622</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.0926250309256581</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.1004227710853554</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.3730860024116555</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.3675003769155663</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.3141006489579702</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.3042001562495926</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.5841911556829854</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.5772093611569238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.3489378471552134</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.3391939479173932</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>-0.07325502793672613</v>
       </c>
+      <c r="M23" t="n">
+        <v>-0.08113447888387947</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.969775585131887</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.808450598972983</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3277503640203415</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.3229463394038798</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.2340188796550057</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.224346758037206</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.1001238307663366</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.09114213728132373</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8346294956362674</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8280649898910284</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.598572824438623</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.447792021474583</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.7217213596050341</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.7117278275635602</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4211363374821697</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4241603011079652</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5973483573064531</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5902356186604858</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.779663856844786</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7755865780430552</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.7890411627635712</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.7922818472586385</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.8074730633710288</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.8083558779460992</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7590097859819962</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.7615017378379708</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.7245776166569428</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.7268923052555992</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6554927996469762</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6541825625309668</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.6019222998366168</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.6040693756615148</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7710864816770517</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.772586024057349</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.5547359324548476</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.5565569312564043</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.6343495584526742</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.6348758242809366</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6759770229049161</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6761432363504594</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6873088090355129</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6898629963310929</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6823344508020991</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6876297695506863</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.240581179644661</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.239119539455828</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-0.9629101583461956</v>
       </c>
+      <c r="M47" t="n">
+        <v>-0.9616370766358954</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8386678599989814</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8355874127575943</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6092628256865733</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6067839363112959</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.03940573806599419</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.03909854885668194</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.824657594446546</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8212818224131527</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.824657594446546</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8212818224131527</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.090521956066359</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.088295654453055</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.1527029081484139</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1508500738283268</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-0.9796683944187731</v>
       </c>
+      <c r="M55" t="n">
+        <v>-0.9784638970260339</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.853607070338771</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8532416662252944</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.9036233952253926</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.9046987935912344</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.054545242127962</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.054114953248334</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7693509761226712</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7662667788044554</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4164128261475032</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4145712752976207</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3885449013921957</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3892144162191805</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.15387285722834</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.154634586395506</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5793126018268955</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5720107822636616</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8450310157486193</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8418746271122439</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.03025903869102762</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02832490627387464</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7345115862530909</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7359810680760527</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6946262903675569</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6974696547724885</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2277005537630428</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2250542114987688</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2358689811074379</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2365688595124723</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2196947396932978</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2228064798036341</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.04359113597762895</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.04353095197501131</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.1942188488995679</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.1947321690302073</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3810429522371293</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3782821541491648</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1532214774189141</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1484157417754021</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.3370658698982356</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.3332202233302938</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4063237848068585</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4065807079819312</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1800445856673102</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1781514806368881</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.04927383243647109</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.05121929046808378</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.02052503132568259</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.02157588908936329</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.09537074515925442</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.09119105274312525</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>-0.008959705038567564</v>
       </c>
+      <c r="N15" t="n">
+        <v>-0.01683060989566619</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.3878849879075631</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.3798741223850423</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.5271554766835622</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.5157841911436934</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.1004227710853554</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.1072282549458921</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.3675003769155663</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.3620997079483157</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.3042001562495926</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.2944682158970753</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.5772093611569238</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.5699323582848985</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.3391939479173932</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.3299115190924948</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>-0.08113447888387947</v>
       </c>
+      <c r="N23" t="n">
+        <v>-0.08882443755311432</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.808450598972983</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.656855793373185</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.3229463394038798</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.3192023080856426</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.224346758037206</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.215642779025126</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.09114213728132373</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.08341021399870538</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8280649898910284</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.8228343426187271</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.447792021474583</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.317398101788555</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.7117278275635602</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.7033189348815463</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4241603011079652</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4260720822053998</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5902356186604858</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5843100193154503</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7755865780430552</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7723424724680211</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.7922818472586385</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.7949896539726894</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.8083558779460992</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.8092299047303997</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.7615017378379708</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7639629541505789</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.7268923052555992</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.7292248341544216</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6541825625309668</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6532837153288127</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.6040693756615148</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.6059678139331518</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.772586024057349</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.7738873954471039</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.5565569312564043</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5583828431805629</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.6348758242809366</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.6356603026306962</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6761432363504594</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6765104982153487</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6898629963310929</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.6922637273990576</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6876297695506863</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6925692745597698</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.239119539455828</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.238357059048703</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-0.9616370766358954</v>
       </c>
+      <c r="N47" t="n">
+        <v>-0.9609327646598896</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8355874127575943</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8332152203219696</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6067839363112959</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6049178558396318</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.03909854885668194</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.03908719118288828</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8212818224131527</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.818625158688101</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8212818224131527</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.818625158688101</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.088295654453055</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.086653879504179</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1508500738283268</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1495161914899996</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-0.9784638970260339</v>
       </c>
+      <c r="N55" t="n">
+        <v>-0.9778719076817224</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8532416662252944</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8535019341341623</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.9046987935912344</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.9063126625969908</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.054114953248334</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.05453290981641</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7662667788044554</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7640940134287725</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4145712752976207</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4134968568963704</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3892144162191805</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3896904859072058</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.154634586395506</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.156171917609431</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5720107822636616</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5660849750521734</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8418746271122439</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8394482897890244</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02832490627387464</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02712819830747556</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7359810680760527</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7381200056148016</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6974696547724885</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7010988670356597</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2250542114987688</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2230403794088271</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2215874471047971</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2365688595124723</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2371335201232264</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2375663013777764</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2228064798036341</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2253883573517043</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2274855126263637</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.04353095197501131</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.04374106398907703</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04418221182924286</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.1947321690302073</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.194987104306643</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1950295963127417</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3782821541491648</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3761258952878594</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3745222279606223</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1484157417754021</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1443539110529433</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1409675007790592</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.3332202233302938</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.32986226152445</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3269832763153716</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4065807079819312</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4065492170739562</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4062837534899008</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1781514806368881</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.1767839794601572</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1758867005252963</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.05121929046808378</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.05340640561671622</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.05576876759396782</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.02157588908936329</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.02267557700730256</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02382135445782242</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.09119105274312525</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.0869685881776623</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.08277770999501546</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>-0.01683060989566619</v>
       </c>
+      <c r="O15" t="n">
+        <v>-0.02450882852917694</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.03191811049595003</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.3798741223850423</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.3720328181196113</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3644626639804314</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.5157841911436934</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.5051885710101555</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4953917611788026</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.1072282549458921</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.113170310948517</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1183636471376141</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.3620997079483157</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.3569138777307417</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3519627866354487</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.2944682158970753</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.2850369672763723</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2760019920768016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.5699323582848985</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.5625723715019986</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5552931054562932</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.3299115190924948</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.3211604717349571</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3129834570441234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>-0.08882443755311432</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.09623675534332604</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1033090105301266</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.656855793373185</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.515881345646089</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.385979903177596</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.3192023080856426</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.3163499125572618</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3142420485315187</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.215642779025126</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.2078480175611874</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.2008989692326813</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.08341021399870538</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.07679443510443131</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.07116955244656895</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.8228343426187271</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.8187656121063521</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8157019941728602</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.317398101788555</v>
       </c>
+      <c r="O29" t="n">
+        <v>2.205293729993913</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.109496983584984</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.7033189348815463</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.696298317405343</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.690487154084958</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4260720822053998</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4271221476294025</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4275181353616064</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5843100193154503</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5794123627511983</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5753999204112504</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7723424724680211</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7698048138358585</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7678621658740948</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.7949896539726894</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.7972732831639558</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.7992227449451159</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.8092299047303997</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.8100912676638644</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8109367755268172</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7639629541505789</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.7663594715324018</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7686663851815934</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.7292248341544216</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.7315327099919052</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7337836788962876</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6532837153288127</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6527207191898265</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6524288853530678</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.6059678139331518</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.6076357902385338</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6090920531484927</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.7738873954471039</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7750233809010156</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7760218781801852</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5583828431805629</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5601800806008893</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5619234513548153</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.6356603026306962</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.6366265908810105</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6377126728415672</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6765104982153487</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6770268791486883</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6776495845415114</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.6922637273990576</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6945023137754879</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6965753555995946</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6925692745597698</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.6971387595924574</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.701335022599936</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.238357059048703</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.238250268119329</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.238747748000431</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-0.9609327646598896</v>
       </c>
+      <c r="O47" t="n">
+        <v>-0.9607655640437177</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.9610963028519899</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8332152203219696</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.8315234676308305</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8304727980913619</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6049178558396318</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6036330839074165</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6028902152372047</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.03908719118288828</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.03934679208788293</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.03985078781523613</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.818625158688101</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8166511562403003</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8153143551828111</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.818625158688101</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8166511562403003</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8153143551828111</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.086653879504179</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.085601938429782</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.085126782784815</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1495161914899996</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.148659336199851</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1482352769675265</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-0.9778719076817224</v>
       </c>
+      <c r="O55" t="n">
+        <v>-0.9778533050628286</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.9783622487125703</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8535019341341623</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8543084915818779</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8555862503769061</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.9063126625969908</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9083913972674763</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9108654501463399</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.05453290981641</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.055668530183284</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.057403945582217</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7640940134287725</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7627363318599898</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.762100072594416</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4134968568963704</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.413079003709617</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4132176533454865</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3896904859072058</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3899920230016475</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3901378341989215</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.156171917609431</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.158370936788779</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.161126665179075</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5660849750521734</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5613799767931202</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5577499429162007</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8394482897890244</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8377181870774687</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.836640146480697</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02712819830747556</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02655587603658779</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02650718150294729</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7381200056148016</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7407928953198633</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7438824701942061</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.7010988670356597</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7053170509057659</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7099591814859051</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2215874471047971</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.2206275923478712</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2375663013777764</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2378732454416887</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2274855126263637</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.229143623656204</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.04418221182924286</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.0448184257944212</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.1950295963127417</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.1948994885039203</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.3745222279606223</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3734180321717042</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1409675007790592</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.138189215853031</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.3269832763153716</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.3245649895627266</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4062837534899008</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.4058312775735748</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1758867005252963</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1754058870866487</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.05576876759396782</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.05825062173081682</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02382135445782242</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02500881116036332</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.08277770999501546</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.07867532439110586</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>-0.03191811049595003</v>
       </c>
+      <c r="Q15" t="n">
+        <v>-0.03900449772174758</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.3644626639804314</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.3572361455040728</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.4953917611788026</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.4863951444596592</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.1183636471376141</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.1229098244215895</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.3519627866354487</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3472582238544522</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.2760019920768016</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.267428915892271</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.5552931054562932</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.5482177763236868</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.3129834570441234</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.305401421445425</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.1033090105301266</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.1099997670811768</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>2.385979903177596</v>
       </c>
+      <c r="Q24" t="n">
+        <v>2.267261288047625</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.3142420485315187</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.3127509615490125</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.2008989692326813</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.1947299813358436</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.07116955244656895</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.06641938774107856</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.8157019941728602</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.8135016405197136</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>2.109496983584984</v>
       </c>
+      <c r="Q29" t="n">
+        <v>2.028156456939269</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.690487154084958</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6857238239460367</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4275181353616064</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.427430662980374</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5753999204112504</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5721455604552484</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7678621658740948</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7664171267018516</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.7992227449451159</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.800911958642775</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.8109367755268172</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.8117638441775512</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7686663851815934</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7708662360331915</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.7337836788962876</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.7359539908618884</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6524288853530678</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6523531778287346</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.6090920531484927</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.6103553756235586</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.7760218781801852</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7769064825429295</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5619234513548153</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5635947034494271</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.6377126728415672</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.6388688158816921</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6776495845415114</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6783436956299513</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6965753555995946</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.698483556099049</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.701335022599936</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.7051633108570072</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.238747748000431</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.239793340525106</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-0.9610963028519899</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-0.9618811032373765</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8304727980913619</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8300160919377477</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6028902152372047</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6026448211964933</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.03985078781523613</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.04057199074763163</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8153143551828111</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.8145635646019415</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8153143551828111</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.8145635646019415</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.085126782784815</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.085201883400842</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.1482352769675265</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1481990863655452</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-0.9783622487125703</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-0.979348951180107</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8555862503769061</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.8572651515031465</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9108654501463399</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9136700300976958</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.057403945582217</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.059633654324198</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.762100072594416</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.7620957796447924</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4132176533454865</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4138229902575756</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3901378341989215</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.390146202313058</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.161126665179075</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.164343383239679</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5577499429162007</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5550593834584726</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.836640146480697</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8361632344057103</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02650718150294729</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02689294980797187</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7438824701942061</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7472880026709783</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7099591814859051</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7148881617449698</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.2206275923478712</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2200974003024017</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2378732454416887</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2380622861734485</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.229143623656204</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2304077424266676</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.0448184257944212</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.04561706812536066</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.1948994885039203</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.1946311095921381</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3734180321717042</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3727605253726493</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.138189215853031</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1359541556610323</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.3245649895627266</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.3225823070440428</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.4058312775735748</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4052320197229798</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1754058870866487</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1752902512332725</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.05825062173081682</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.06080558591798143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02500881116036332</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02623242361381797</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.07867532439110586</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.07470379476878723</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>-0.03900449772174758</v>
       </c>
+      <c r="R15" t="n">
+        <v>-0.04573221980126631</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.3572361455040728</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.3504020118165209</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.4863951444596592</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.4781834923055696</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.1229098244215895</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.12689828835189</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3472582238544522</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3428054810135018</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.267428915892271</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.2593591115750973</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.5482177763236868</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.5414361377921251</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.305401421445425</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.2984183247668355</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.1099997670811768</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.1162844901602047</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>2.267261288047625</v>
       </c>
+      <c r="R24" t="n">
+        <v>2.159572273964965</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.3127509615490125</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.3117663636078638</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.1947299813358436</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1892751542504137</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.06641938774107856</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.06243715706952283</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.8135016405197136</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.8120371832323562</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>2.028156456939269</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.959559797681495</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6857238239460367</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6818632597299469</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.427430662980374</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4269985750180166</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5721455604552484</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5695367364030891</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7664171267018516</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7653850598283944</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.800911958642775</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8024010858108075</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.8117638441775512</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.8125704236803161</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7708662360331915</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7729476161629454</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.7359539908618884</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.7380268877437411</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6523531778287346</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6524470856715168</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.6103553756235586</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.6114441392011553</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7769064825429295</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7776970285738661</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5635947034494271</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.565181261818025</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.6388688158816921</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.6400556955676866</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6783436956299513</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6790810351637766</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.698483556099049</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.7002307282379592</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.7051633108570072</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.7086351882508243</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.239793340525106</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.241328679145606</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-0.9618811032373765</v>
       </c>
+      <c r="R47" t="n">
+        <v>-0.9630736092760706</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8300160919377477</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8301015006998562</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6026448211964933</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6028497426235538</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.04057199074763163</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.04148340675337166</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.8145635646019415</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8143444755785294</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.8145635646019415</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8143444755785294</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.085201883400842</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.085791225266171</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1481990863655452</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1485063710006471</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-0.979348951180107</v>
       </c>
+      <c r="R55" t="n">
+        <v>-0.980761860783094</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.8572651515031465</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.8592805987609803</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9136700300976958</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.9167455126269735</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.059633654324198</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.062263967386276</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.7620957796447924</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7626392508500589</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4138229902575756</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4148150100174485</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.390146202313058</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3900345842745193</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.164343383239679</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.167934652086335</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5550593834584726</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5531836788982073</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8361632344057103</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8362326288534185</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02689294980797187</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02763481733534977</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7472880026709783</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.7509236295348071</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.7148881617449698</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7199911970830778</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2200974003024017</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.219938229283182</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2380622861734485</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2381425929517818</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2304077424266676</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2313214298717705</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.04561706812536066</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.04654878496165319</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.1946311095921381</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.1942538428084513</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3727605253726493</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3724983949436891</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1359541556610323</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.13420067195807</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.3225823070440428</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.3210055583656725</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4052320197229798</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4045202055937086</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1752902512332725</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.1754915531746823</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.06080558591798143</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.06339545950999585</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02623242361381797</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.02748599784117283</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.07470379476878723</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.07089348280045012</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>-0.04573221980126631</v>
       </c>
+      <c r="S15" t="n">
+        <v>-0.05208016121703973</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.3504020118165209</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.3439898902258009</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.4781834923055696</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.4707292537397814</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.12689828835189</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.1304074207063631</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3428054810135018</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3386047305212135</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.2593591115750973</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.2518145820386071</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.5414361377921251</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.5350105732704035</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.2984183247668355</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.2920251087657208</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.1162844901602047</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.1221520596621983</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>2.159572273964965</v>
       </c>
+      <c r="S24" t="n">
+        <v>2.062563097192338</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.3117663636078638</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.311193609897585</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.1892751542504137</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.1844697936857105</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.06243715706952283</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.05912550656578817</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.8120371832323562</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.8111950448774189</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.959559797681495</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.90213705729013</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6818632597299469</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6787760858485259</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4269985750180166</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4263336397646791</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5695367364030891</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5674743925422334</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7653850598283944</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7646928446195965</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8024010858108075</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8037386071416485</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.8125704236803161</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.8133549308829925</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7729476161629454</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7749039735586756</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.7380268877437411</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.739991297555769</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6524470856715168</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6526715754013444</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.6114441392011553</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.6123760285798279</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7776970285738661</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7784100861847985</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.565181261818025</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5666751414603952</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.6400556955676866</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.641242738192997</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6790810351637766</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6798391550433852</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.7002307282379592</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.7018229710780852</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.7086351882508243</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.7117667742566155</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.241328679145606</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.24329514758559</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-0.9630736092760706</v>
       </c>
+      <c r="S47" t="n">
+        <v>-0.9646267234686272</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8301015006998562</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.8306748463752236</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6028497426235538</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6034568826302873</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.04148340675337166</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.04255884485381346</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8143444755785294</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8146017057754312</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8143444755785294</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8146017057754312</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.085791225266171</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.086852540950423</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1485063710006471</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.1491141862343063</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-0.980761860783094</v>
       </c>
+      <c r="S55" t="n">
+        <v>-0.9825493470421364</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.8592805987609803</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.8615736556710973</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.9167455126269735</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9200376239112346</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.062263967386276</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.065212311620939</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7626392508500589</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7636522060715047</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4148150100174485</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4161229609096935</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3900345842745193</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3898194037985028</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.167934652086335</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.171823107904114</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5531836788982073</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5520092210222347</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8362326288534185</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8367918771444636</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02763481733534977</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.02866437160880887</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.7509236295348071</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7547167363556431</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7199911970830778</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7251764862718318</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.219938229283182</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.220096376809636</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2381425929517818</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2381240478421295</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2313214298717705</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2319261370571764</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.04654878496165319</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04758739255473442</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.1942538428084513</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.1937926702950823</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3724983949436891</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.3725826189175702</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.13420067195807</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1328709438557753</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.3210055583656725</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.3198022944610314</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4045202055937086</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4037247434986346</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.1754915531746823</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1759649673286358</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.06339545950999585</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.06598913172612905</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.02748599784117283</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.02876301622856924</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.07089348280045012</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.06726494835125336</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>-0.05208016121703973</v>
       </c>
+      <c r="T15" t="n">
+        <v>-0.05803884803477887</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.3439898902258009</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.3380142189197979</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.4707292537397814</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.4639960876756523</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.1304074207063631</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1335055812446864</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3386047305212135</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3346521913267288</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.2518145820386071</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.2448021028281173</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.5350105732704035</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.5289813331808303</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.2920251087657208</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.2862030017024643</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.1221520596621983</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.1276018215276269</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>2.062563097192338</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.975742314890809</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.311193609897585</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.3109519650343405</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.1844697936857105</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1802514872038026</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.05912550656578817</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.05639632814496327</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.8111950448774189</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.8108746029005537</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.90213705729013</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.854460038312203</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6787760858485259</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6763476135627295</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4263336397646791</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4255247165819039</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.5674743925422334</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5658718323266407</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7646928446195965</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7642776713090687</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8037386071416485</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8049631563642314</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.8133549308829925</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.8141161877301958</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7749039735586756</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7767325966917505</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.739991297555769</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7418407165202401</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6526715754013444</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6529941293681399</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.6123760285798279</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.6131678168183523</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7784100861847985</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7790594098766984</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5666751414603952</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5680720203605273</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.641242738192997</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.6424066681906804</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6798391550433852</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6806004406613312</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.7018229710780852</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.7032679943693649</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.7117667742566155</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.714577306660458</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.24329514758559</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.245635360248185</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-0.9646267234686272</v>
       </c>
+      <c r="T47" t="n">
+        <v>-0.9664939313855775</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.8306748463752236</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.8316814838472314</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6034568826302873</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6044185793818803</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.04255884485381346</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.04377335618912427</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8146017057754312</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.815280366161623</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8146017057754312</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.815280366161623</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.086852540950423</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.088339891957463</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.1491141862343063</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1499816912205967</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-0.9825493470421364</v>
       </c>
+      <c r="T55" t="n">
+        <v>-0.9846609711045149</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.8615736556710973</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.8640910602275873</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9200376239112346</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.9234974511812073</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.065212311620939</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.068406443965708</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7636522060715047</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7650626533593594</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4161229609096935</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4176847074882621</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3898194037985028</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3895159200879429</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.171823107904114</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.175940091919211</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5520092210222347</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5514332678591887</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8367918771444636</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8377846356221187</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.02866437160880887</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.02992227868612446</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7547167363556431</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7586064277858294</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7251764862718318</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7303702337115782</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.220096376809636</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2205230916189078</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2381240478421295</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2380168356111992</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2319261370571764</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2322607865066232</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04758739255473442</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04870971724452809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.1937926702950823</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.1932686852386711</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.3725826189175702</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3729670323790164</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1328709438557753</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1319113257963265</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.3198022944610314</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.3189387082802998</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4037247434986346</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4028698661373686</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1759649673286358</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.17666927945204</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.06598913172612905</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.06856159239365371</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.02876301622856924</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03005690427575074</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.06726494835125336</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.06383083803194738</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>-0.05803884803477887</v>
       </c>
+      <c r="U15" t="n">
+        <v>-0.06360790057378696</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.3380142189197979</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.3324775690369535</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.4639960876756523</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.4579417380286652</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1335055812446864</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1362521175376732</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3346521913267288</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.3309411049775602</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.2448021028281173</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.2383167047934848</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.5289813331808303</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5233709996227763</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.2862030017024643</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.2809262412369997</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.1276018215276269</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.1326411169879925</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.975742314890809</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.898521538164283</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.3109519650343405</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.3109729787021894</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1802514872038026</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1765608705523302</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.05639632814496327</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.05417041342835531</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.8108746029005537</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.8109872645860097</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.854460038312203</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.815238634713916</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6763476135627295</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6744767523319384</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4255247165819039</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4246414232129677</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5658718323266407</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.564653585848864</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7642776713090687</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7640858984551642</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8049631563642314</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8061051269504458</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.8141161877301958</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.8148533653467096</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7767325966917505</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7784337593271817</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7418407165202401</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7435722598591273</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6529941293681399</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6533878720979986</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.6131678168183523</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.6138352238766392</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7790594098766984</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7796563418128332</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5680720203605273</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.5693704553746943</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.6424066681906804</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.6435302451635636</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6806004406613312</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6813513248415494</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.7032679943693649</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.7045745712296112</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.714577306660458</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.7170879833074509</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.245635360248185</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.24829424756696</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-0.9664939313855775</v>
       </c>
+      <c r="U47" t="n">
+        <v>-0.9686302848645583</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.8316814838472314</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8330677146429324</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6044185793818803</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6056886299418843</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.04377335618912427</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.04510353445229684</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.815280366161623</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8163272304377849</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.815280366161623</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8163272304377849</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.088339891957463</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.090205697266807</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1499816912205967</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1510705931431843</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-0.9846609711045149</v>
       </c>
+      <c r="U55" t="n">
+        <v>-0.9870484137585382</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.8640910602275873</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.8667851030666374</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.9234974511812073</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.9270813233076721</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.068406443965708</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.071783618797301</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7650626533593594</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.766805019561185</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4176847074882621</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.4194460515280923</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3895159200879429</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3891381565932002</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.175940091919211</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.1802251669491</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5514332678591887</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5513635870732065</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8377846356221187</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.839155977755751</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.02992227868612446</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03135741551169741</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7586064277858294</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7625421008988168</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.7303702337115782</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7355139777431686</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2205230916189078</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2211744698225822</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2380168356111992</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2378311282842413</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2322607865066232</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.2323615139253034</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04870971724452809</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04989540493167273</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.1932686852386711</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.1926995671209774</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3729670323790164</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3736086892043377</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1319113257963265</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.1312725163759867</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.3189387082802998</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.3183807377946735</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4028698661373686</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4019757220628113</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.17666927945204</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1775669523175529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.06856159239365371</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.07109304426531653</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03005690427575074</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03136123111635544</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.06383083803194738</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.06059749313447352</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>-0.06360790057378696</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.06879389930938012</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.3324775690369535</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.3273734259738475</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.4579417380286652</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.4525203437896104</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1362521175376732</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1386983270294765</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.3309411049775602</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3274625443927853</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.2383167047934848</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.2323445748803505</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5233709996227763</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5181882608381165</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.2809262412369997</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.2761642929584196</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.1326411169879925</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.1372832319728879</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.898521538164283</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.830251455891168</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.3109729787021894</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.3111989827472194</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1765608705523302</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1733421413674734</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.05417041342835531</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.05237699392819376</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.8109872645860097</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.8114554971943726</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.815238634713916</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.783314992781362</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6744767523319384</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6730748838666883</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4246414232129677</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4237373383415542</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.564653585848864</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5637543035728123</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7640858984551642</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7640719846807966</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8061051269504458</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8071880693323114</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.8148533653467096</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.8155659337449864</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7784337593271817</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.780010006607966</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7435722598591273</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7451858625475772</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6533878720979986</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6538307838005128</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.6138352238766392</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.6143928336217632</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7796563418128332</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.78021017033284</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.5693704553746943</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.5705712246584954</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.6435302451635636</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6446011740347939</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6813513248415494</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6820816031241845</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.7045745712296112</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.7057521003951168</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.7170879833074509</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.7193210418967069</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.24829424756696</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.251219818805479</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-0.9686302848645583</v>
       </c>
+      <c r="V47" t="n">
+        <v>-0.9709931053196649</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8330677146429324</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8347818297060341</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6056886299418843</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6072230275027057</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.04510353445229684</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.04652770541420255</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8163272304377849</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.817691577871658</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8163272304377849</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.817691577871658</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.090205697266807</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.092402297825557</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1510705931431843</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1523454227041656</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-0.9870484137585382</v>
       </c>
+      <c r="V55" t="n">
+        <v>-0.9896661242469459</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.8667851030666374</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.8696134065596994</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.9270813233076721</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.9307505975861768</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.071783618797301</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.075289740959446</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.766805019561185</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7688201012006769</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.4194460515280923</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4213600378706949</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3891381565932002</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3886988763336043</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.1802251669491</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.184625561404129</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5513635870732065</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5517179490533106</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.839155977755751</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8408533466271771</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03135741551169741</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.0329260274850773</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7625421008988168</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7664821314095536</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7355139777431686</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7405622223322957</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2211744698225822</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.2220112667072713</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2378311282842413</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2375768481243267</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.2323615139253034</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2322615364555252</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04989540493167273</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05112671250522472</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.1926995671209774</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.1921000176617989</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3736086892043377</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3744680615536777</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.1312725163759867</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1309095884851879</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.3183807377946735</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.3180949038404003</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4019757220628113</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.4010589148673908</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1775669523175529</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.1786240913189409</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.07109304426531653</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.07356811349216752</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03136123111635544</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.03266985580480666</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.06059749313447352</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.05756630750997097</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.06879389930938012</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.07360861342688158</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.3273734259738475</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.3226884966586859</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.4525203437896104</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.4476842680854984</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1386983270294765</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1408883606272905</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3274625443927853</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3242060767312069</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.2323445748803505</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.2268654489862785</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5181882608381165</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5134310755364655</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.2761642929584196</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.2718836358409009</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.1372832319728879</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1415457122076218</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.830251455891168</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.770250439776259</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.3111989827472194</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.3115817155239741</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1733421413674734</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1705433700963034</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.05237699392819376</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.05095320649923918</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.8114554971943726</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.8122118477443562</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.783314992781362</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.757656169252963</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6730748838666883</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6720647347292183</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4237373383415542</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4228527779910422</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5637543035728123</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.5631176960195793</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7640719846807966</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7641975016252537</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8071880693323114</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8082298973053946</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.8155659337449864</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.8162536168931642</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.780010006607966</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7814655644777074</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7451858625475772</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7466836119979066</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6538307838005128</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6543049981276902</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.6143928336217632</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.6148540566571313</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.78021017033284</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7807284463026574</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.5705712246584954</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.571676780989309</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6446011740347939</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.645611171407775</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6820816031241845</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6827838415533766</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.7057521003951168</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.7068102612992213</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.7193210418967069</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.7212990408706926</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.251219818805479</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.254363664754439</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-0.9709931053196649</v>
       </c>
+      <c r="W47" t="n">
+        <v>-0.9735424603480171</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8347818297060341</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8367748488267249</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6072230275027057</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6089804659660348</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.04652770541420255</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.04802602897222116</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.817691577871658</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8193257708405685</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.817691577871658</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8193257708405685</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.092402297825557</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.094883135337548</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1523454227041656</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1537736765991894</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-0.9896661242469459</v>
       </c>
+      <c r="W55" t="n">
+        <v>-0.9924717442584858</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.8696134065596994</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.8725386352715683</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.9307505975861768</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9344713818390414</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.075289740959446</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.078878528919994</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7688201012006769</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.7710548819059726</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4213600378706949</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4233862659612573</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3886988763336043</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3882095925385497</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.184625561404129</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.189095572900627</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5517179490533106</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5524235193321712</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8408533466271771</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8428272177754299</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.0329260274850773</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.03459092558190105</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7664821314095536</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7703926769105227</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7405622223322957</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7454803543623164</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.2220112667072713</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.222998649807288</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2375768481243267</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2372634950067627</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2322615364555252</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2319911189564472</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05112671250522472</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.05238829090656054</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.1921000176617989</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.1914821567244002</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3744680615536777</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3755091129147877</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1309095884851879</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.1307819145551811</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.3180949038404003</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.3180489288867173</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.4010589148673908</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4001329900316526</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.1786240913189409</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1798103359414515</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.07356811349216752</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.07597515299519075</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.03266985580480666</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.03397702964739631</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.05756630750997097</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.05473486487480406</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.07360861342688158</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.07806754458942233</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.3226884966586859</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.3184046051854788</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.4476842680854984</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4433855216987714</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1408883606272905</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1428600612557515</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3242060767312069</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3211603003042303</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.2268654489862785</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2218545655777594</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5134310755364655</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5090893029731074</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.2718836358409009</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.2680491793174259</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1415457122076218</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.145448993625238</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.770250439776259</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.717826889254172</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.3115817155239741</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.3120810744844635</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1705433700963034</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1681166507578399</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.05095320649923918</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.04984351515785326</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.8122118477443562</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.8131979783473835</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.757656169252963</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.737345831462461</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6720647347292183</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6713792743218068</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4228527779910422</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4220171857191271</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.5631176960195793</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5626955329404794</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7641975016252537</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7644302311843688</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8082298973053946</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8092439225000254</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.8162536168931642</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8169163528106481</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7814655644777074</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7828058558139462</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7466836119979066</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7480691957461338</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6543049981276902</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6547961798199801</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.6148540566571313</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.6152311283676085</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7807284463026574</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7812172601990659</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.571676780989309</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5726908013995715</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.645611171407775</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6465551714285886</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6827838415533766</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.683452867958356</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.7068102612992213</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.7077587470582112</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.7212990408706926</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.7230443085413375</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.254363664754439</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.257681253523438</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-0.9735424603480171</v>
       </c>
+      <c r="X47" t="n">
+        <v>-0.9762414590771429</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8367748488267249</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8390010149673744</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6089804659660348</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6109226580782168</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.04802602897222116</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.04958053337661058</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8193257708405685</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8211856196204347</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8193257708405685</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8211856196204347</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.094883135337548</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.097603613701966</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1537736765991894</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1553258569950506</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-0.9924717442584858</v>
       </c>
+      <c r="X55" t="n">
+        <v>-0.9954263533670683</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.8725386352715683</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.8755281621253916</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9344713818390414</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9382142150449194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.078878528919994</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.082510705853403</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.7710548819059726</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.7734622542542873</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4233862659612573</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4254902223197906</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3882095925385497</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3876806053624602</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.189095572900627</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.193595956294445</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5524235193321712</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5534161899182732</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8428272177754299</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8450315290404942</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.03459092558190105</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.03632073257188677</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7703926769105227</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7742465969530856</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7454803543623164</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7502428255863062</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.222998649807288</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2241059138035774</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2372634950067627</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2369000261125082</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2319911189564472</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2315776145826877</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.05238829090656054</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05366696718941127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.1914821567244002</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.1908558787196321</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3755091129147877</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3766992745796574</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.1307819145551811</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1308530147832473</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.3180489288867173</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.3182121767105796</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4001329900316526</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.3992088708158269</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1798103359414515</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1810986982674622</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.07597515299519075</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07830563230190582</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.03397702964739631</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.03527746330080284</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.05473486487480406</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.05209788334493397</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.07806754458942233</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.08218874223616275</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.3184046051854788</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3145002341339578</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4433855216987714</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4395768479462885</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1428600612557515</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1446457340871247</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3211603003042303</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3183132738097054</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2218545655777594</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2172842428264164</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5090893029731074</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5051468693346429</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.2680491793174259</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.2646253698569764</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.145448993625238</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1490153022530938</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.717826889254172</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.672296343181212</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.3120810744844635</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3126639944190679</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1681166507578399</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1660181275433416</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.04984351515785326</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.04899911360040905</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.8131979783473835</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.8143637359406114</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.737345831462461</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.721575430733328</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6713792743218068</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6709606576527168</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4220171857191271</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.4212511764045765</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5626955329404794</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.5624467105567117</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7644302311843688</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7647433471752239</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8092439225000254</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8102397354176761</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8169163528106481</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8175542583222281</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7828058558139462</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.7840371081087448</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7480691957461338</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7493474485351445</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6547961798199801</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.655292976931102</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.6152311283676085</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.6155351333882877</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7812172601990659</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7816814831189706</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5726908013995715</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5736178197532386</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6465551714285886</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6474306550905803</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.683452867958356</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.6840853378629153</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.7077587470582112</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.708607062233556</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.7230443085413375</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.7245785315955017</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.257681253523438</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.261132064274497</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-0.9762414590771429</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-0.9790564046823098</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8390010149673744</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.841418093103993</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6109226580782168</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.6130145062681213</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.04958053337661058</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.05117509794269524</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8211856196204347</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.823230578979242</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8211856196204347</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.823230578979242</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.097603613701966</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.100521702107759</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1553258569950506</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1569754329447342</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-0.9954263533670683</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-0.9984945748802081</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.8755281621253916</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.8785537094339988</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9382142150449194</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9419537247052439</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.082510705853403</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.086153231044681</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.7734622542542873</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.7760006766074039</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4254902223197906</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.427642644663803</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3876806053624602</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3871210571649837</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.193595956294445</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.19809331483869</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5534161899182732</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5546398805578514</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8450315290404942</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8474239255236183</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.03632073257188677</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.03808918408010004</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7742465969530856</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.7780224866705814</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7502428255863062</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7548315765980435</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2241059138035774</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.2253061734822201</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2369000261125082</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.236494777643627</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2315776145826877</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2310455601381301</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05366696718941127</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.05495153102742221</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.1908558787196321</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.1902291709540806</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3766992745796574</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3780093502247281</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1308530147832473</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1310903510449303</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.3182121767105796</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.3185559473145158</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.3992088708158269</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.3982952455824794</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1810986982674622</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1824653655786922</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07830563230190582</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.08055360675668451</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.03527746330080284</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.03656636597883363</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.05209788334493397</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.04964799292672673</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.08218874223616275</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.08599185079713333</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3145002341339578</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3109517634679652</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4395768479462885</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4362125275334878</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1446457340871247</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1462728476854268</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3183132738097054</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.315652854369904</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2172842428264164</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2131251357881874</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5051468693346429</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5015835349766391</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.2646253698569764</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2615770382093124</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1490153022530938</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.152267782435064</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.672296343181212</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.632994258152422</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3126639944190679</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3133034461967268</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1660181275433416</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1642079273135772</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.04899911360040905</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.04837732705172738</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.8143637359406114</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.8156662695326985</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.721575430733328</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.709635183996207</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6709606576527168</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6707592262088836</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.4212511764045765</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4205682721536765</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.5624467105567117</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5623363915392009</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7647433471752239</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7651146793877384</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8102397354176761</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8112239507204951</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8175542583222281</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8181675980880977</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.7840371081087448</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7851660390575541</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7493474485351445</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7505239846217922</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.655292976931102</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6557865417819941</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.6155351333882877</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6157760492951225</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7816814831189706</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7821249750272021</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5736178197532386</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.57446293018594</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6474306550905803</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6482370878655324</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.6840853378629153</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6846793665227917</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.708607062233556</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7093643739414469</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.7245785315955017</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7259224579139227</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.261132064274497</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.264679596329191</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-0.9790564046823098</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-0.981956836251502</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.841418093103993</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8439875154438512</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.6130145062681213</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6152241590259101</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.05117509794269524</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.05279539763837433</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.823230578979242</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8254238139851343</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.823230578979242</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8254238139851343</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.100521702107759</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.103598330228787</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1569754329447342</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1586987442292234</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-0.9984945748802081</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.001644574578313</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.8785537094339988</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.8815909796129504</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9419537247052439</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9456682749819432</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.086153231044681</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.089778579706853</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.7760006766074039</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.7786337892806575</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.427642644663803</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4298189247771264</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3871210571649837</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.386539000335585</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.19809331483869</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.202559508173112</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5546398805578514</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5560458337451993</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8474239255236183</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8499658601364164</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.03808918408010004</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.03987448729164399</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.7780224866705814</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.7817038184614851</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7548315765980435</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7592346796315204</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.2253061734822201</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2265760473549771</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.236494777643627</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2360554198593972</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2310455601381301</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2304168103204534</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.05495153102742221</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.05623252957368635</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.1902291709540806</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1896083959876756</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3780093502247281</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3794133687403127</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1310903510449303</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1314650847584277</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.3185559473145158</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3190536562949881</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.3982952455824794</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3973989095998361</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1824653655786922</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1838894806199111</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.08055360675668451</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08271525875298888</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.03656636597883363</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.0378394628948998</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.04964799292672673</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.04737636941102533</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.08599185079713333</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.08949735336881487</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3109517634679652</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3077344533945321</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4362125275334878</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4332489541989407</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1462728476854268</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1477646671995503</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.315652854369904</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3131669590398715</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2131251357881874</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2093472239118008</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5015835349766391</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.4983763207615134</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2615770382093124</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2588700320488359</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.152267782435064</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.1552298169098752</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.632994258152422</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.599285233798927</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3133034461967268</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3139775491160738</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1642079273135772</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1626500228018873</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.04837732705172738</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.04794102734225865</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.8156662695326985</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.8170692035001413</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.709635183996207</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.700905118113841</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6707592262088836</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6707325754170256</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4205682721536765</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4199763668163645</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5623363915392009</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.562335219389823</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7651146793877384</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7655260564411009</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8112239507204951</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8122008333671671</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8181675980880977</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8187567575282948</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7851660390575541</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7861996079323572</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7505239846217922</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7516049025989454</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6557865417819941</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6562701145621354</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6157760492951225</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6159628036888423</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7821249750272021</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7825507635523963</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.57446293018594</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5752315506245469</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6482370878655324</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6489754516740551</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6846793665227917</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6852342191010641</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7093643739414469</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7100394064601707</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7259224579139227</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7270956921484228</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.264679596329191</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.268291284586425</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-0.981956836251502</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-0.9849154866823138</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8439875154438512</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8466744079992363</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6152241590259101</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6175229801024638</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.05279539763837433</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.05442882042374544</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8254238139851343</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8277321661317172</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8254238139851343</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8277321661317172</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.103598330228787</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.106797618253353</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1586987442292234</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1604748642774767</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.001644574578313</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.004847979158345</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.8815909796129504</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.8846192867962398</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9456682749819432</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.949339616199502</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.089778579706853</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.093364075934219</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.7786337892806575</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.7813300091304798</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4298189247771264</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4319985543701691</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.386539000335585</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3859414728990012</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.202559508173112</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.206971086821677</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5560458337451993</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5575919213359937</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8499658601364164</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8526225834537723</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.03987448729164399</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.04165873786963126</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.7817038184614851</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.7852781848341776</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7592346796315204</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.7634451772900847</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2265760473549771</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.227895341530834</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2360554198593972</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2355889381428751</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2304168103204534</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.2297106980854166</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.05623252957368635</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.0575020733405851</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1896083959876756</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.1889985404573001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3794133687403127</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3808884015725937</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1314650847584277</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1319518131899522</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3190536562949881</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3196809232815075</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3973989095998361</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3965250647655419</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1838894806199111</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.1853529101491609</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08271525875298888</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.08478850366828732</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.0378394628948998</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.03909299601469428</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.04737636941102533</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.04527324576259738</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.08949735336881487</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.09272598047519032</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3077344533945321</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3048232121838024</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4332489541989407</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4306450247763651</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1477646671995503</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1491408221153435</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3131669590398715</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.3108437626815644</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2093472239118008</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2059205731330398</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.4983763207615134</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.4955006454520333</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2588700320488359</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2564716727404597</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.1552298169098752</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1579245067386803</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.599285233798927</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.570569355412356</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3139775491160738</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3146687888990605</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1626500228018873</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.1613120467613609</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.04794102734225865</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.04765807123989581</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.8170692035001413</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8185418718781213</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.700905118113841</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.694846365005367</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6707325754170256</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6708446933669399</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4199763668163645</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4194789530733409</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.562335219389823</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5624186066199036</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7655260564411009</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.765962722825517</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8122008333671671</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8131728209203675</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8187567575282948</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8193222192708631</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7861996079323572</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7871448220720191</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7516049025989454</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7525965514597651</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6562701145621354</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6567386634957393</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6159628036888423</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6161033400137559</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7825507635523963</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.7829611965427494</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5752315506245469</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5759292368587335</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6489754516740551</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.6496478584311502</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6852342191010641</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6857500515907174</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7100394064601707</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7106403709238892</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7270956921484228</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7281165656923624</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.268291284586425</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.271938346567055</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-0.9849154866823138</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-0.9879081785262406</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8466744079992363</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8494475274750647</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6175229801024638</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6198854529729574</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.05442882042374544</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.05606436608091816</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8277321661317172</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8301260453875845</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8277321661317172</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8301260453875845</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.106797618253353</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.1100869776337</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1604748642774767</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.162285435541587</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.004847979158345</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.008079736296575</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.8846192867962398</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.8876211976376513</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.949339616199502</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9529525435019126</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.093364075934219</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.096891280926379</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.7813300091304798</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.7840621172625183</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4319985543701691</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4341646159784887</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3859414728990012</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3853345781879402</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.206971086821677</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.211308759669018</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5575919213359937</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5592419757420799</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8526225834537723</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8553630506891785</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.04165873786963126</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.04342739401553929</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.7852781848341776</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.7887366346913801</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.7634451772900847</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.7674600951927244</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.227895341530834</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2292467409557647</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2355889381428751</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2351016340411717</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.2297106980854166</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.2289442109942769</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.0575020733405851</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.05875365479487397</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.1889985404573001</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1884034330367688</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3808884015725937</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3824143575471178</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1319518131899522</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1325282955158986</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3196809232815075</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3204155900178746</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3965250647655419</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3956775808733608</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.1853529101491609</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.1868400099545635</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.08478850366828732</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.08677265342296192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.03909299601469428</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.04032371228823593</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.04527324576259738</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.04332831976803084</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.09272598047519032</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09569825642775152</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3048232121838024</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3021931848382683</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4306450247763651</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4283623807910104</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1491408221153435</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1504178120268562</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.3108437626815644</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.3086718434224838</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2059205731330398</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2028159111306</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.4955006454520333</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4929312200313994</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2564716727404597</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2543510694453859</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1579245067386803</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.1603742832648463</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.570569355412356</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.546286224660093</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3146687888990605</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3153633327873434</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.1613120467613609</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1601650733646404</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.04765807123989581</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.04750076893653832</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8185418718781213</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8200586158190092</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.694846365005367</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.690992841616501</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6708446933669399</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6710651725383669</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4194789530733409</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4190761432523709</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5624186066199036</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.5625660944704711</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.765962722825517</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.766412824872634</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8131728209203675</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8141409559973275</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8193222192708631</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.819864542769858</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7871448220720191</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7880085891898481</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7525965514597651</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7535053480007181</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6567386634957393</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6571885756568222</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6161033400137559</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6162046884387677</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.7829611965427494</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.783358071430668</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5759292368587335</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5765615388252217</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.6496478584311502</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6502572336552142</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6857500515907174</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6862276957371488</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7106403709238892</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7111749229802832</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7281165656923624</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.729002065533975</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.271938346567055</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.275595581588894</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-0.9879081785262406</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-0.9909136756004246</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8494475274750647</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.8522791322161944</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6198854529729574</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.62228903884645</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.05606436608091816</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.05769253347018824</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8301260453875845</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.8325792690422567</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8301260453875845</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.8325792690422567</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.1100869776337</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.113437112432938</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.162285435541587</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1641144879399709</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.008079736296575</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.011317934055768</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.8876211976376513</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.8905821872082622</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9529525435019126</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.9564945701997869</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.096891280926379</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.100345436675529</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.7840621172625183</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.7868068509491986</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4341646159784887</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4363033192870109</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3853345781879402</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.3847235657366734</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.211308759669018</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.215556898374633</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5592419757420799</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5609651547519419</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8553630506891785</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8581597685230503</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.04342739401553929</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.0451688054371943</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.7887366346913801</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.7920730949599895</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.7674600951927244</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.7712796078082739</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2292467409557647</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.230615513134036</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2351016340411717</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2345991412898671</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.2289442109942769</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2281321756140446</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.05875365479487397</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.05998198060836098</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1884034330367688</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1878259342834703</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3824143575471178</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3839737653750271</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1325282955158986</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1331751773201074</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3204155900178746</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3212376851236626</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3956775808733608</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.394859222073825</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.1868400099545635</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.1883373925057033</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.08677265342296192</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.08866813096510305</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.04032371228823593</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.04152884275857945</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.04332831976803084</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04153107447090321</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09569825642775152</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.09843415942125164</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3021931848382683</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.2998201937486155</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4283623807910104</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.426365532896147</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1504178120268562</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.1516094544980776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.3086718434224838</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.3066402853652173</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2028159111306</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2000050490746484</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4929312200313994</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4906427390825683</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2543510694453859</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2524793188204184</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.1603742832648463</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1626006281390449</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.546286224660093</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.525917160277808</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3153633327873434</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.3160504330160318</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1601650733646404</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.1591833798243951</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.04750076893653832</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.04744538710295444</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8200586158190092</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8215981443008198</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.690992841616501</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.688943405376751</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6710651725383669</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.671368494066751</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4190761432523709</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4187655121190842</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.5625660944704711</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.562760780763862</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.766412824872634</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7668669600707612</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8141409559973275</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.815105241460906</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.819864542769858</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8203843467598638</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7880085891898481</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.7887976074569009</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7535053480007181</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7543376369367927</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6571885756568222</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6576173927993653</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6162046884387677</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6162730389495107</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.783358071430668</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7837427442506326</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5765615388252217</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5771338918660106</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6502572336552142</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6508070598623898</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6862276957371488</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6866684818689035</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7111749229802832</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7116501424298012</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.729002065533975</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7297678090036112</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.275595581588894</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.279241138494218</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-0.9909136756004246</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-0.9939135047036337</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.8522791322161944</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.8551448064949583</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.62228903884645</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6247140029574478</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.05769253347018824</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.05930520164472916</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.8325792690422567</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8350688641820833</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.8325792690422567</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8350688641820833</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.113437112432938</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.116821945930863</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1641144879399709</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1659482486706579</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.011317934055768</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.014543593813664</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.8905821872082622</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.8934903140080939</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.9564945701997869</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-0.9599556195498556</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.100345436675529</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.103714963890281</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.7868068509491986</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.7895445078996381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4363033192870109</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4384035820468605</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.3847235657366734</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3841129112583203</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.215556898374633</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.21970308074774</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5609651547519419</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.562735345889964</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8581597685230503</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8609886001676076</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.0451688054371943</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.04687379420487262</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.7920730949599895</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.7952838694335969</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.7712796078082739</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.7749063382735151</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.230615513134036</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2319892278388926</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2345991412898671</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.2340864527470035</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2281321756140446</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2272874438704706</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.05998198060836098</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.06118281792976746</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1878259342834703</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.1872681011035643</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3839737653750271</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.3855515517399921</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1331751773201074</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1338757200346697</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3212376851236626</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3221293495216042</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.394859222073825</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.394071842097436</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.1883373925057033</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.1898337017686132</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.08866813096510305</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.0904762294506756</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.04152884275857945</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.04270607529124887</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04153107447090321</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.03987102582872613</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.09843415942125164</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.1009528748179985</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.2998201937486155</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.297681058133005</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.426365532896147</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4246218943319127</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.1516094544980776</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.1527272794318676</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.3066402853652173</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.3047387468029324</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2000050490746484</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1974611784354413</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4906427390825683</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4886104040517206</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2524793188204184</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2508296141469906</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1626006281390449</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.1646238809256484</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.525917160277808</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.508985972255941</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.3160504330160318</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3167219100378105</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.1591833798243951</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1583441983928601</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.04744538710295444</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.04747168897791788</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8215981443008198</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8231429566312709</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.688943405376751</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.688354541416001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.671368494066751</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6717333824708491</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4187655121190842</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4185427869856473</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.562760780763862</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5629888117162627</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7668669600707612</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7673177840481189</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.815105241460906</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.816064929601435</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8203843467598638</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8208822942362637</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.7887976074569009</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7895182864603988</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7543376369367927</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7550995862728214</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6576173927993653</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6580235869260642</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6162730389495107</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.616313814478532</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7837427442506326</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7841162209260264</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5771338918660106</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5776515367250911</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6508070598623898</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6513011706501262</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6866684818689035</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6870740941889505</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7116501424298012</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.712072529861919</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7297678090036112</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7304280536282557</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.279241138494218</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.282856264921356</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-0.9939135047036337</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-0.9968917588367444</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.8551448064949583</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.8580232536282961</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.6247140029574478</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.627143220881225</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.05930520164472916</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.060895509011535</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8350688641820833</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8375748472162401</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8350688641820833</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8375748472162401</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.116821945930863</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.120218492664112</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1659482486706579</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1677749497826471</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.014543593813664</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.017740447910338</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.8934903140080939</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.8963359166196638</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-0.9599556195498556</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-0.9633277373016454</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.103714963890281</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.10699101192877</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.7895445078996381</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.7922585686490414</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4384035820468605</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4404566538841428</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3841129112583203</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3835063941427673</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.21970308074774</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.223737673640983</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.562735345889964</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.5645306137719209</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8609886001676076</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8638285433716797</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.04687379420487262</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.04853528398731666</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.7952838694335969</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.7983672068955143</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.7749063382735151</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.7783447746401311</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2319892278388926</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2333574950501833</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.2340864527470035</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2335679549402773</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2272874438704706</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.2264210767577636</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.06118281792976746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.0623528546146329</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.1872681011035643</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.1867313284795062</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.3855515517399921</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.3871348209644204</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1338757200346697</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1346155400659381</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3221293495216042</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.323074733903167</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.394071842097436</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3933165516501492</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.1898337017686132</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.191319398392178</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.0904762294506756</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.09219891040284792</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.04270607529124887</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.04385352311933793</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.03987102582872613</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03833791009835667</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.1009528748179985</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1032726240641301</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.297681058133005</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.2957538151471362</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4246218943319127</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4231017451199123</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.1527272794318676</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.1537808745042555</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.3047387468029324</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.3029575009316431</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1974611784354413</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.1951590671505941</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4886104040517206</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4868103083875875</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2508296141469906</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2493772838397576</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.1646238809256484</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1664631169162878</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.508985972255941</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.495058644654219</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3167219100378105</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3173717071709664</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1583441983928601</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1576274665592865</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.04747168897791788</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.04756251245875574</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8231429566312709</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8246788242023867</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.688354541416001</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.688933611020478</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6717333824708491</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.672142227631217</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4185427869856473</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4184024076748883</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5629888117162627</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.5632389330896704</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7673177840481189</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7677596696269965</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.816064929601435</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.8170187552722392</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8208822942362637</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.8213590796740418</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7895182864603988</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7901766931577817</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7550995862728214</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7557971115326512</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6580235869260642</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6584063707200452</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.616313814478532</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6163317424546985</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7841162209260264</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7844792332019662</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5776515367250911</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5781194629505112</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6513011706501262</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6517435874827083</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6870740941889505</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.6874464536951898</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.712072529861919</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.7124480161683641</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7304280536282557</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7309957332115903</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.282856264921356</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.286425048252446</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-0.9968917588367444</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-0.9998348908729406</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.8580232536282961</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.8608960702221731</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.627143220881225</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6295619741076086</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.060895509011535</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.06245773370539837</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8375748472162401</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8400799910125044</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8375748472162401</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8400799910125044</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.120218492664112</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.123606692250301</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1677749497826471</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.1695846383218593</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.017740447910338</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.020894710731543</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.8963359166196638</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.8991113333743029</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-0.9633277373016454</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-0.9666048262569291</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.10699101192877</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.110167057843288</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.7922585686490414</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.7949353409405558</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4404566538841428</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4424557807116831</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3835063941427673</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3829071713724129</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.223737673640983</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.227653454838052</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.5645306137719209</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5663326920194802</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8638285433716797</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.8666614929792732</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.04853528398731666</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.05014797389772864</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.7983672068955143</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8013229309545163</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.7783447746401311</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.7816007866808067</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2333574950501833</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2347117223651616</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2335679549402773</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.23304746758793</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.2264210767577636</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2255425220337499</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.0623528546146329</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.06348957303860542</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.1867313284795062</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1862164709684127</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.3871348209644204</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.3887126407012821</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1346155400659381</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.135382360923944</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.323074733903167</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3240598773855989</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3933165516501492</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3925938611825014</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.191319398392178</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.1927865574202137</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.09219891040284792</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.09383863566547676</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.04385352311933793</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.04496969094055589</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03833791009835667</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.0369218217078929</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1032726240641301</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.105410554345717</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.2957538151471362</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.2940178620727389</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4231017451199123</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4217781448459754</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.1537808745042555</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.154778186211014</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.3029575009316431</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.3012874549318156</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.1951590671505941</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1930751756678538</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4868103083875875</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4852197102037952</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2493772838397576</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2480997758993178</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1664631169162878</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1681360805225463</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.495058644654219</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.483742203061714</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3173717071709664</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3179955087823654</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1576274665592865</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1570155813349272</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.04756251245875574</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.04770338603065082</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8246788242023867</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8261943282138776</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.688933611020478</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.690432670292236</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.672142227631217</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6725805700546986</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4184024076748883</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4183379762246943</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.5632389330896704</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5635020958477281</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7677596696269965</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7681884125540794</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.8170187552722392</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8179651217353456</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.8213590796740418</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8218154182215673</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7901766931577817</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.7907785178511875</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7557971115326512</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.7564358233928216</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6584063707200452</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6587655383846501</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6163317424546985</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6163309236016847</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7844792332019662</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7848323013624662</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5781194629505112</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5785423711713396</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6517435874827083</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6521383922148233</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.6874464536951898</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6877876244772156</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.7124480161683641</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7127819815560543</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7309957332115903</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7314825128911835</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.286425048252446</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.289934156005249</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-0.9998348908729406</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.002731504586606</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.8608960702221731</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.8637475111752422</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6295619741076086</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.6319577420255518</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.06245773370539837</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.06398717751212636</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8400799910125044</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8425695878250344</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8400799910125044</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8425695878250344</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.123606692250301</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.126969218108466</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.1695846383218593</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.1713689925895133</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.020894710731543</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.023994849896559</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.8991113333743029</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9018106455185705</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-0.9666048262569291</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-0.9697824032582503</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.110167057843288</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.113238551224554</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.7949353409405558</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.7975636284808699</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4424557807116831</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4443959070842119</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3829071713724129</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3823178471180683</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.227653454838052</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.231445272632113</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5663326920194802</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5681265198625689</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.8666614929792732</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.8694719970828777</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.05014797389772864</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.05170805308844836</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8013229309545163</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8041521244952924</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.7816007866808067</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.7846812290438562</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2347117223651616</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.236044892367199</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.23304746758793</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.232528286004386</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2255425220337499</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.2246597835168834</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.06348957303860542</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.06459113690095969</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1862164709684127</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1857239463148484</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.3887126407012821</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.3902758368410788</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.135382360923944</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1361657805393778</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3240598773855989</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3250725746440926</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3925938611825014</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3919038019963852</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.1927865574202137</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.1942286798532544</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.09383863566547676</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.09539822849246046</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.04496969094055589</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.04605343992173198</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.0369218217078929</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.03561331080610572</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.105410554345717</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.1073826764416056</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.2940178620727389</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2924540359263618</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4217781448459754</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4206268085762069</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.154778186211014</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1557257809510548</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.3012874549318156</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2997201523134178</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1930751756678538</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.1911877100628405</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4852197102037952</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4838172142484297</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2480997758993178</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2469766019507193</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1681360805225463</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.1696591620214697</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.483742203061714</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.474682992040094</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3179955087823654</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3185904146402895</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1570155813349272</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.1564931619398346</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.04770338603065082</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.04788218154227851</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8261943282138776</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.827680449623924</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.690432670292236</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.692642852602172</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6725805700546986</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6730366450034911</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4183379762246943</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.4183426137528308</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5635020958477281</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5637711114440301</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7681884125540794</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.7686009787977947</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8179651217353456</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8189022468608548</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8218154182215673</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8222520366290793</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.7907785178511875</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7913290560005543</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.7564358233928216</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.7570209941031316</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6587655383846501</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.6591013328594624</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6163309236016847</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.6163148971750892</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7848323013624662</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7851757856386702</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5785423711713396</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5789246504263199</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6521383922148233</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6524896293209428</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6877876244772156</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6880997396705466</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7127819815560543</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.713079281315796</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7314825128911835</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7318988573136842</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.289934156005249</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.29337258149789</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.002731504586606</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.005572148274326</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.8637475111752422</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.866564252864426</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.6319577420255518</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6343199957548594</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.06398717751212636</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.065480055007352</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8425695878250344</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8450312142360914</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8425695878250344</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8450312142360914</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.126969218108466</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.130291271468827</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.1713689925895133</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.1731211470198026</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.023994849896559</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.0270313625408</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9018106455185705</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9044294437065046</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-0.9697824032582503</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-0.9728573784038398</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.113238551224554</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.116202601315446</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.7975636284808699</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8001344252922729</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4443959070842119</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4462734136341668</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3823178471180683</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3817405375637481</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.231445272632113</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.235109741254978</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5681265198625689</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.5698998224986865</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.8694719970828777</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.8722470136867173</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.05170805308844836</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.05321295226645961</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8041521244952924</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8068568621762828</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.7846812290438562</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.7875936181356773</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.236044892367199</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2373513598632216</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.232528286004386</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2320132247599793</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.2246597835168834</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.22377958038997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.06459113690095969</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.06565629027965406</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1857239463148484</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1852538233402762</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.3902758368410788</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.3918167998158098</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1361657805393778</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1369570550599273</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3250725746440926</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3261022372391184</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3919038019963852</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3912460284025523</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.1942286798532544</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.1956405187385672</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.09539822849246046</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.09688075962218627</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.04605343992173198</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.0471039526521302</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.03561331080610572</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.0344034482906762</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.1073826764416056</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1092038402822966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2924540359263618</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2910446441530243</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4206268085762069</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4196259576407552</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1557257809510548</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1566290703711578</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2997201523134178</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.2982477625704826</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.1911877100628405</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.189476626546233</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4838172142484297</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4825828815622966</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2469766019507193</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2459892520057652</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.1696591620214697</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1710474075103209</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.474682992040094</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.46756454477367</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3185904146402895</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3191546636434563</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.1564931619398346</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1560468239322644</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.04788218154227851</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04808880224671776</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.827680449623924</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8291302073399704</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.692642852602172</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.695389297218515</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6730366450034911</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6735009808395981</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.4183426137528308</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4184092396442765</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5637711114440301</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5640403519660563</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.7686009787977947</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7689952886415824</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8189022468608548</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8198282763095456</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8222520366290793</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.8226696656940908</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7913290560005543</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7918332023841076</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.7570209941031316</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7575575388092903</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.6591013328594624</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6594143357936493</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.6163148971750892</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6162867021129572</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7851757856386702</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7855099279952821</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5789246504263199</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5792703673390103</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6524896293209428</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.652801232637326</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6880997396705466</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6883849438367188</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.713079281315796</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.713344276138845</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7318988573136842</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.7322541072418746</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.29337258149789</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.29673139903829</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.005572148274326</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.008349114833677</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.866564252864426</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.8693351601182479</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6343199957548594</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6366399978587425</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.065480055007352</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.06693338904208458</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8450312142360914</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8474545027305178</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8450312142360914</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8474545027305178</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.130291271468827</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.133560368796938</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.1731211470198026</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.1748355273606825</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.0270313625408</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.029996560320002</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9044294437065046</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9069646171603972</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-0.9728573784038398</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-0.975827855835823</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.116202601315446</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.119057702792656</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8001344252922729</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8026406359985632</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4462734136341668</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4480858866480141</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3817405375637481</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3811769307308644</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.235109741254978</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.238644969968399</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.5698998224986865</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5716427335191523</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.8722470136867173</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.8749756730526332</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.05321295226645961</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.05466112842390278</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8068568621762828</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8094399849659918</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.7875936181356773</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.7903458716033902</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2373513598632216</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2386266684784416</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2320132247599793</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2315046613429758</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.22377958038997</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2229074955377759</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.06565629027965406</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.06668426811025471</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1852538233402762</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1848058960835138</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.3918167998158098</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.393329303682533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1369570550599273</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1377488997255228</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3261022372391184</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3271397535608172</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3912460284025523</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3906199033886114</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.1956405187385672</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.1970179199729231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.09688075962218627</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.09828945466501784</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.0471039526521302</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.0481206988293636</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.0344034482906762</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.03328386489477193</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1092038402822966</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1108877395029526</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2910446441530243</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.289773457749618</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4196259576407552</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4187561546487366</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1566290703711578</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1574925049451733</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.2982477625704826</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2968630614624711</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.189476626546233</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1879235991852878</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4825828815622966</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4814982822344844</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2459892520057652</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2451210889584133</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1710474075103209</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1723145537194271</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.46756454477367</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.462105190736795</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3191546636434563</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3196874007225476</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1560468239322644</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1556649668031167</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04808880224671776</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04831490412946481</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8291302073399704</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8305383405778238</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.695389297218515</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.698526598623364</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6735009808395981</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.673966046880432</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4184092396442765</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4185307861781474</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5640403519660563</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.564305490544737</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7689952886415824</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7693700331689307</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8198282763095456</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8207413694144045</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.8226696656940908</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8230690340273566</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7918332023841076</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7922954547116768</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7575575388092903</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.7580500085305579</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6594143357936493</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6597053770518737</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6162867021129572</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6162489337979942</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7855099279952821</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.785834885777655</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5792703673390103</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5795832644702553</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.652801232637326</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.6530769721718571</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6883849438367188</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.688645348977283</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.713344276138845</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.7135808652241195</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.7322541072418746</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7325565608907449</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.29673139903829</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.300003531618591</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.008349114833677</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.011056251058446</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.8693351601182479</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.8720510611014651</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6366399978587425</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6389106108338951</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.06693338904208458</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.06834491328290988</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8474545027305178</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.849830923221815</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8474545027305178</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.849830923221815</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.133560368796938</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.136766128879186</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.1748355273606825</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.1765076971916412</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.029996560320002</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.032884365664939</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9069646171603972</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9094141645019608</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-0.975827855835823</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-0.9786929551321315</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.119057702792656</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.121803496651095</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8026406359985632</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.8050768217190917</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4480858866480141</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4498319168587209</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3811769307308644</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3806283412414411</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.238644969968399</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.242050323425593</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5716427335191523</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5733474571921181</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.8749756730526332</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.8776490494846957</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.05466112842390278</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.05605187926006742</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8094399849659918</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8119049112709356</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.7903458716033902</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.7929461006701536</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2386266684784416</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2398673857962354</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2315046613429758</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2310045788831142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2229074955377759</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2220481124304873</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.06668426811025471</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.06767471721528162</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1848058960835138</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1843797459792069</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.393329303682533</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.3948083387429282</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1377488997255228</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1385353068940608</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3271397535608172</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3281773507425089</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3906199033886114</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3900245700095067</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.1970179199729231</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.1983576776319573</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.09828945466501784</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.09962761957597191</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.0481206988293636</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.04910340225196383</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.03328386489477193</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.03224676984580715</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1108877395029526</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1124469378092072</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.289773457749618</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2886256761673472</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4187561546487366</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4180001301119359</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1574925049451733</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1583197394786183</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2968630614624711</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.295559404618267</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1879235991852878</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1865119605313159</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4814982822344844</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.4805465040854708</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2451210889584133</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2443572300251894</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1723145537194271</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1734730808637643</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.462105190736795</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.458055516649023</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3196874007225476</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3201884812979719</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1556649668031167</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1553375762531584</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04831490412946481</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04855364829849357</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.8305383405778238</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8319010313528657</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.698526598623364</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.701934745805554</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.673966046880432</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.6744259461336441</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4185307861781474</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.418700359877082</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.564305490544737</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5645632776887541</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7693700331689307</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.769724519114145</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8207413694144045</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8216397626605116</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8230690340273566</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.82345086296327</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7922954547116768</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7927199243085102</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.7580500085305579</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7585025920964745</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6597053770518737</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6599754608979703</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6162489337979942</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.6162037963024405</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.785834885777655</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7861507585139429</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5795832644702553</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5798667656407135</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.6530769721718571</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6533204171991793</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.688645348977283</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6888830017829523</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.7135808652241195</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7137925207952736</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7325565608907449</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7328135571083239</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.300003531618591</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.303183533079643</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.011056251058446</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.013688778021118</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.8720510611014651</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.8747045330354983</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6389106108338951</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6411261163615345</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.06834491328290988</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.06971298218403291</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.849830923221815</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8521535768041781</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.849830923221815</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8521535768041781</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.136766128879186</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.139900064272479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.1765076971916412</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.1781342163055387</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.032884365664939</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.035690120940135</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9094141645019608</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9117770250271132</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-0.9786929551321315</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-0.9814526521213104</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.121803496651095</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.124440562738999</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.8050768217190917</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.8074389707612966</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4498319168587209</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.451510924612506</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3806283412414411</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3800957600864699</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.242050323425593</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.245326210818245</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5733474571921181</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.5750079680596999</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.8776490494846957</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.8802599451671211</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.05605187926006742</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.05738518399203669</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8119049112709356</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8142554797571047</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.7929461006701536</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.79540244683521</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2398673857962354</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2410709560267246</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2310045788831142</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.230514607249297</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2220481124304873</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2212051404368217</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.06767471721528162</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.06862762699725244</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1843797459792069</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1839747936795672</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.3948083387429282</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.3962499579717292</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1385353068940608</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1393113808950001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3281773507425089</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3292084610204506</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3900245700095067</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3894590104755832</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.1983576776319573</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.1996574033687963</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.09962761957597191</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.1008985813915658</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.04910340225196383</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.05005200952314795</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.03224676984580715</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.03128495368712416</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1124469378092072</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1138929112826693</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2886256761673472</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2875878716370083</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4180001301119359</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.4173426064034553</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1583197394786183</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1591137739321417</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.295559404618267</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.2943306966325262</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1865119605313159</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1852266230288123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.4805465040854708</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4797121278865805</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2443572300251894</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.243684420835152</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1734730808637643</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1745342780144193</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.458055516649023</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.455195770549582</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3201884812979719</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3206583082474271</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1553375762531584</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.1550560417436393</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04855364829849357</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04879948208058679</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8319010313528657</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8332156631890764</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.701934745805554</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.705515517663287</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.6744259461336441</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6748761484426775</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.418700359877082</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4189113592305195</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5645632776887541</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5648113494906554</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.769724519114145</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7700585384291464</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8216397626605116</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8225218149393686</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.82345086296327</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8238158624574277</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7927199243085102</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7931103519242323</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7585025920964745</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7589191248201869</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6599754608979703</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6602257063440883</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.6162037963024405</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6161531501177523</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7861507585139429</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7864576089958815</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5798667656407135</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.5801239864116455</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6533204171991793</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6535349124403864</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6888830017829523</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.689099860068102</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7137925207952736</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7139823229591137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7328135571083239</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7330315581936497</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.303183533079643</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.306267385908961</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.013688778021118</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.016243123708781</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.8747045330354983</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.8772897007181333</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6411261163615345</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6432820465767198</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.06971298218403291</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.07103648851359139</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8521535768041781</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.8544170031741969</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8521535768041781</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.8544170031741969</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.139900064272479</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.14295538056127</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.1781342163055387</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.1797125110923611</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.035690120940135</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.038410411469775</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9117770250271132</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9140529290565023</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-0.9814526521213104</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-0.9841076378101793</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.124440562738999</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.126970240657421</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.8074389707612966</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8097242929613413</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.451510924612506</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4531230086966571</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3800957600864699</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3795798995578128</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.245326210818245</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.248473901313826</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.5750079680596999</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.5766197451196458</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.8802599451671211</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.8828026877592322</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.05738518399203669</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.05866156749364672</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8142554797571047</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8164958194907553</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.79540244683521</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.7977229555882699</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2410709560267246</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2422355690590085</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.230514607249297</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2300360620388529</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2212051404368217</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2203815287302623</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.06862762699725244</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.06954326891938195</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1839747936795672</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.1835903419517696</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.3962499579717292</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.3976511371601565</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1393113808950001</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1400731891020942</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3292084610204506</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.3302275943073439</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3894590104755832</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.388922094690779</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.1996574033687963</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2009154092331621</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.1008985813915658</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.1021056417784873</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.05005200952314795</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.05096666073448619</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.03128495368712416</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.03039177905877654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1138929112826693</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1152361018642112</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2875878716370083</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2866479191123447</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.4173426064034553</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4167701234138931</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1591137739321417</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1598770726563615</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.2943306966325262</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2931713573817365</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1852266230288123</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1840539875457797</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4797121278865805</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4789811778224958</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.243684420835152</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2430909066181908</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1745342780144193</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.175508316568282</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.455195770549582</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.453333277780298</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3206583082474271</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.32109769687896</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.1550560417436393</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1548129894301273</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04879948208058679</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04904794642586753</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8332156631890764</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8344806123134196</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.705515517663287</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.709189299091612</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6748761484426775</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6753132598004651</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4189113592305195</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4191575570027135</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5648113494906554</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5650480639608889</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7700585384291464</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.770372259281939</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8225218149393686</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8233860381171786</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8238158624574277</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8241647278316038</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7931103519242323</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.7934701270922332</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7589191248201869</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7593031020901356</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6602257063440883</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6604572994665843</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6161531501177523</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6160985554687242</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7864576089958815</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7867554796080708</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.5801239864116455</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.580357748248874</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6535349124403864</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6537235646344027</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.689099860068102</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.6892977766484026</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7139823229591137</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7141529940941849</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7330315581936497</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.733216230699531</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.306267385908961</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.309252315210627</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.016243123708781</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.018716768526021</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.8772897007181333</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.8798020490439102</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6432820465767198</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.645375028042726</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.07103648851359139</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.07231478836388577</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.8544170031741969</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8566170025131138</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.8544170031741969</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8566170025131138</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.14295538056127</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.145926785845748</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.1797125110923611</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.1812407567693998</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.038410411469775</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.041042902856794</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9140529290565023</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9162422659202278</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-0.9841076378101793</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-0.9866591940480373</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.126970240657421</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.129394475937294</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8097242929613413</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8119310362951088</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4531230086966571</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4546688162741014</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3795798995578128</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3790812335670687</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.248473901313826</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.251495363337858</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.5766197451196458</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.578179537786183</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.8828026877592322</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.8852729427325263</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.05866156749364672</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.05988198495432626</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8164958194907553</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.8186302435162015</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.7977229555882699</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.7999154808062087</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2422355690590085</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2433600446820949</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2300360620388529</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2295699811397854</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2203815287302623</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2195795691569543</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.06954326891938195</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.07042214392576548</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.1835903419517696</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.1832256109215726</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.3976511371601565</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.3990096484086391</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1400731891020942</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1408176284168923</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.3302275943073439</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.331230218176721</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.388922094690779</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.3884126197872328</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2009154092331621</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.2021306031339125</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.1021056417784873</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1032520412728567</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.05096666073448619</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.05184766229038802</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.03039177905877654</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.02956116255375165</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1152361018642112</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1164859781912555</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2866479191123447</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2857949168037686</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4167701234138931</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4162708691501866</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1598770726563615</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1606116648345852</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2931713573817365</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.2920762869179213</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1840539875457797</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1829818440732588</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4789811778224958</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4783410542843152</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2430909066181908</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.2425663039014508</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.175508316568282</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.176404328314273</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.453333277780298</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.452299920386203</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.32109769687896</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3215077639132017</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1548129894301273</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.154602130228296</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04904794642586753</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04929550724605979</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8344806123134196</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.835695067824302</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.709189299091612</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.712892281982374</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6753132598004651</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6757348238547284</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4191575570027135</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.4194331540725406</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5650480639608889</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5652723620624862</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.770372259281939</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.770666135550357</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8233860381171786</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8242311158999251</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8241647278316038</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8244981372424635</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.7934701270922332</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.793802309777327</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7593031020901356</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.7596576964050923</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6604572994665843</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6606714557743835</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6160985554687242</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.6160413113820791</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7867554796080708</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7870444047384847</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.580357748248874</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.580570595179802</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6537235646344027</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6538892372489331</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.6892977766484026</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6894784891888016</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7141529940941849</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.714306932168862</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.733216230699531</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7333725230198634</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.309252315210627</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.312136618906064</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.018716768526021</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.021108103851248</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.8798020490439102</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.8822382501296835</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.645375028042726</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6474026386751622</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.07231478836388577</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.07354763343261142</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8566170025131138</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.8587504721146604</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8566170025131138</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.8587504721146604</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.145926785845748</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.148810312067974</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.1812407567693998</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.1827177710866792</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.041042902856794</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.043586192609762</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9162422659202278</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9183459681127927</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-0.9866591940480373</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-0.9891090845325858</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.129394475937294</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.131715688626483</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8119310362951088</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.8140583242432456</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4546688162741014</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.4561494315472817</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3790812335670687</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3786000336182752</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.251495363337858</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.254393125348262</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.578179537786183</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.5796851608323124</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.8852729427325263</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.8876675408753832</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.05988198495432626</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.06104772450161167</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.8186302435162015</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8206631624439116</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.7999154808062087</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8019876144047995</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2433600446820949</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2444437307345555</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2295699811397854</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2291171586773534</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2195795691569543</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2188009885789123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.07042214392576548</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.07126493699265948</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.1832256109215726</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1828797667840782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.3990096484086391</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.4003239464078555</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1408176284168923</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1415423062235964</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.331230218176721</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3322126460016562</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.3884126197872328</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3879293420135328</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.2021306031339125</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2033023960893769</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1032520412728567</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.1043409323840333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.05184766229038802</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.05269546194981899</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.02956116255375165</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.02878755018751951</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1164859781912555</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.1176511007526182</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2857949168037686</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2850191012483764</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4162708691501866</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4158345176138102</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1606116648345852</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1613192286449687</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.2920762869179213</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2910408299914463</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1829818440732588</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.181999268562828</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4783410542843152</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4777804547100963</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.2425663039014508</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2421014752701261</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.176404328314273</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1772304853609935</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.452299920386203</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.451949717362896</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3215077639132017</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3218898369486416</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.154602130228296</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1544181224964118</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04929550724605979</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.04953940838353063</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.835695067824302</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8368588775673862</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.712892281982374</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.716574015916436</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6757348238547284</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6761391519173207</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.4194331540725406</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4197328106499713</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5652723620624862</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.5654836503334865</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.770666135550357</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7709408322013398</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8242311158999251</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.825055913494113</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8244981372424635</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8248167497650611</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.793802309777327</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.7941096533116048</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.7596576964050923</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7599857766673714</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6606714557743835</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.660869390971455</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.6160413113820791</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6159824907282901</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7870444047384847</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7873244199814422</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.580570595179802</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5807648119932878</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.6538892372489331</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6540345514592733</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6894784891888016</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6896436147837832</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.714306932168862</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7144462425591619</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7333725230198634</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7335047389262678</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.312136618906064</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.314919513864027</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.021108103851248</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.023416303508659</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.8822382501296835</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.8845960051892474</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6474026386751622</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6493632775239819</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.07354763343261142</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.07473511026006796</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.8587504721146604</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.8608152576583032</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.8587504721146604</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.8608152576583032</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.148810312067974</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.151603149134738</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.1827177710866792</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.184142918983223</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.043586192609762</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.046039675783603</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9183459681127927</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.9203654101700374</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-0.9891090845325858</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-0.9914594597796812</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.131715688626483</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.133936661647261</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.8140583242432456</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8161060123241157</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.4561494315472817</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.4575662809595312</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3786000336182752</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3781364007278996</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.254393125348262</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.257170155870455</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.5796851608323124</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.5811353155845327</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.8876675408753832</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.8899843209623561</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.06104772450161167</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.06216032547725375</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8206631624439116</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.8225990150397535</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.8019876144047995</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8039466366167707</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2444437307345555</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2454864139516206</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2291171586773534</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.2286781762579766</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2188009885789123</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2180470313035804</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.07126493699265948</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.07207247805004671</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1828797667840782</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1825519449655575</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.4003239464078555</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4015930668130861</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1415423062235964</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1422454347986107</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3322126460016562</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3331719336346897</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3879293420135328</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3874710021621226</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2033023960893769</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2044306203697816</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.1043409323840333</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1053753599983342</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.05269546194981899</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.05351062609637713</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.02878755018751951</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.02806588852933096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.1176511007526182</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.118739188981272</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2850191012483764</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2843117600059626</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4158345176138102</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4154520755630488</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1613192286449687</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1620011613837938</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2910408299914463</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2900607410019087</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.181999268562828</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1810965189746148</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4777804547100963</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.4772892870362291</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2421014752701261</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2416884090530325</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1772304853609935</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1779940798253291</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.451949717362896</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.452156531804224</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3218898369486416</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.3222453813146161</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1544181224964118</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1542564486333789</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.04953940838353063</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.04977754401325738</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8368588775673862</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8379724167079141</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.716574015916436</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.72019527453021</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6761391519173207</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6765251780889014</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4197328106499713</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4200516597580846</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.5654836503334865</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5656817022892238</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7709408322013398</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7711971642488534</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.825055913494113</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8258594801435197</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8248167497650611</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.825121203995537</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.7941096533116048</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.7943946278368587</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7599857766673714</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.760289928792399</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.660869390971455</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6610522986837257</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6159824907282901</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6159229714870107</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7873244199814422</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7875955687373282</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5807648119932878</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5809424432329381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6540345514592733</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6541618918498951</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6896436147837832</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.689794648235205</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7144462425591619</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7145727680739639</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7335047389262678</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.73361660651065</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.314919513864027</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.317600997393952</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.023416303508659</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.0256412077777</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.8845960051892474</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.8868739009521652</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6493632775239819</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6512560470709797</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.07473511026006796</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.07587758603751124</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.8608152576583032</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.8628100187409753</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.8608152576583032</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.8628100187409753</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.151603149134738</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.154303492288431</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.184142918983223</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.1855160275662966</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.046039675783603</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.048403424114956</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.9203654101700374</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.922302320863347</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-0.9914594597796812</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-0.9937127747217696</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.133936661647261</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.136060446513761</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8161060123241157</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8180745621910985</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.4575662809595312</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4589210529296977</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3781364007278996</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3776902935990678</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.257170155870455</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.259829760701811</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.5811353155845327</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.5825294347531186</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.8899843209623561</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.8922219872634987</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.06216032547725375</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.06322151029239695</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.8225990150397535</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.8244422131854682</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.8039466366167707</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8057994829681215</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2454864139516206</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2464882423118457</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.2286781762579766</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2282534315017659</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2180470313035804</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2173185322705179</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.07207247805004671</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.07284570856487706</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1825519449655575</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1822412685959504</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4015930668130861</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4028165359313778</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1422454347986107</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1429257381225112</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3331719336346897</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.3341057847397447</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3874710021621226</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3870363455666337</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2044306203697816</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2055154576254636</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1053753599983342</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1063582477482193</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.05351062609637713</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.05429381919836035</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.02806588852933096</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.02739159313176763</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.118739188981272</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1197571884499184</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2843117600059626</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2836651443609293</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4154520755630488</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.4151157391801573</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1620011613837938</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.1626586375393195</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2900607410019087</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2891321499695991</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1810965189746148</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1802649328690235</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.4772892870362291</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4768585793575715</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2416884090530325</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2413201052308734</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1779940798253291</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1787016017034022</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.452156531804224</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.452811921901975</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.3222453813146161</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.3225759416080611</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1542564486333789</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.1541133047675513</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.04977754401325738</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05000834840728735</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8379724167079141</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8390364762468129</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.72019527453021</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.723726205192881</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6765251780889014</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6768923364092524</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4200516597580846</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4203853070446046</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5656817022892238</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5658665760874249</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7711971642488534</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7714360472616866</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8258594801435197</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8266410462623111</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.825121203995537</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8254121170895055</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.7943946278368587</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.7946594436529545</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.760289928792399</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7605724768960302</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6610522986837257</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6612213339238067</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6159229714870107</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6158634645047043</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7875955687373282</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7878579067197667</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5809424432329381</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5811053124014479</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6541618918498951</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6542734155727548</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.689794648235205</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6899329631683645</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7145727680739639</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7146881170048505</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.73361660651065</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.7337113422210463</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.317600997393952</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.320181723350527</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.0256412077777</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.027783219389297</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.8868739009521652</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.8890712801642752</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6512560470709797</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.653080647519538</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.07587758603751124</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.07697566055757998</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.8628100187409753</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.8647341080733323</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.8628100187409753</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.8647341080733323</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.154303492288431</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.156910402785987</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.1855160275662966</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.1868373107216252</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.048403424114956</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.05067807797481</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.922302320863347</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9241587073694681</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-0.9937127747217696</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-0.9958717176606455</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.136060446513761</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.138090284223238</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8180745621910985</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8199649317124461</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4589210529296977</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4602156303002504</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3776902935990678</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3772615533605133</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.259829760701811</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.262375495344417</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.5825294347531186</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.5838675484226259</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.8922219872634987</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.8943799813346193</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.06322151029239695</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.06423312800942278</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.8244422131854682</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.8261970989222768</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8057994829681215</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8075527246361264</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2464882423118457</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2474496577364993</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2282534315017659</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2278431639141029</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2173185322705179</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.216615981696395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.07284570856487706</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.0735856531318068</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1822412685959504</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1819468630396216</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4028165359313778</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4039942908935648</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1429257381225112</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1435823700382955</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.3341057847397447</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3350124646768594</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3870363455666337</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3866241375613773</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2055154576254636</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2065573761061076</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1063582477482193</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1072923892141338</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.05429381919836035</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.05504578538385631</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.02739159313176763</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.02676051555031235</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1197571884499184</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1207113367827284</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2836651443609293</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.28307238382542</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.4151157391801573</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4148187612038722</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.1626586375393195</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1632926565724812</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2891321499695991</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.288251529952477</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1802649328690235</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1794968282697526</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4768585793575715</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4764803885911156</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2413201052308734</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2409904684147351</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1787016017034022</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1793588137712359</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.452811921901975</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.453823145547474</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.3225759416080611</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3228830955629953</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.1541133047675513</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1539855026369142</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05000834840728735</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.0502307011322299</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8390364762468129</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8400521689816092</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.723726205192881</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.727144731581326</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6768923364092524</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.6772404572356436</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4203853070446046</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4207298202786588</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5658665760874249</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5660385462125173</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7714360472616866</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7716584576455305</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8266410462623111</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8274000165767492</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8254121170895055</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8256900841634881</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.7946594436529545</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.7949060740204821</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7605724768960302</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.76083550448964</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6612213339238067</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6613776012461963</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6158634645047043</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6158045380209078</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7878579067197667</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7881115047994791</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5811053124014479</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5812550409317261</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6542734155727548</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6543710639334527</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6899329631683645</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6900598152773962</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7146881170048505</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7147936891039767</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.7337113422210463</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7337917098581415</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.320181723350527</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.322662891973097</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.027783219389297</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.029843210840051</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.8890712801642752</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.8911881255234135</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.653080647519538</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.6548372824285089</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.07697566055757998</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.07803012385353825</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.8647341080733323</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.8665874636036032</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.8647341080733323</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.8665874636036032</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.156910402785987</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.159423681650116</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.1868373107216252</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.1881073026291604</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.05067807797481</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.052864750356536</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9241587073694681</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9259367901504223</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-0.9958717176606455</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-0.9979391493730195</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.138090284223238</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.140029539350704</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8199649317124461</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8217784795023221</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4602156303002504</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4614520338570318</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3772615533605133</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3768499251767526</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.262375495344417</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.264811090879532</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.5838675484226259</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.585150168887398</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.8943799813346193</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.896458367364888</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.06423312800942278</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.06519710800498765</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.8261970989222768</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8278679115956497</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8075527246361264</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.809212559403474</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2474496577364993</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2483713380577495</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2278431639141029</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2274474781901987</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.216615981696395</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.2159395818873483</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.0735856531318068</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.07429339547211428</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1819468630396216</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.1816678671316744</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4039942908935648</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.405126609465153</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1435823700382955</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.1442148427196144</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3350124646768594</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.335890722684698</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3866241375613773</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3862331751719326</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2065573761061076</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2075570761040232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1072923892141338</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1081804430019843</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.05504578538385631</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.05576733202975414</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.02676051555031235</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.02616890995786794</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1207113367827284</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.1216072272633423</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.28307238382542</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2825274037610602</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4148187612038722</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.4145553287298532</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1632926565724812</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.163904081947124</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.288251529952477</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2874156661988388</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1794968282697526</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1787854090334291</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4764803885911156</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4761477102739916</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2409904684147351</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2406942083857128</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1793588137712359</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1799708227073386</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.453823145547474</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.455111322662415</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3228830955629953</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3231684182178782</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1539855026369142</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1538703827248263</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.0502307011322299</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.05044384589811149</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8400521689816092</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.841020850657847</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.727144731581326</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.730435180865546</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.6772404572356436</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6775696803318889</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4207298202786588</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4210817112833155</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5660385462125173</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5661980471897715</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7716584576455305</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7718654011525619</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8274000165767492</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.8281359604253481</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8256900841634881</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8259556779964679</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.7949060740204821</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.7951362770877294</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.76083550448964</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.761080875252079</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6613776012461963</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6615221467030915</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6158045380209078</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6157466392395264</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7881115047994791</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7883564505435114</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5812550409317261</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5813930665939808</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6543710639334527</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6544565755769548</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6900598152773962</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6901763471195537</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7147936891039767</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7148906994602696</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7337917098581415</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7338600745380309</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.322662891973097</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.325046152508523</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.029843210840051</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.031822442280679</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.8911881255234135</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.8932249562790685</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.6548372824285089</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6565265749618412</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.07803012385353825</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.07904191906538252</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.8665874636036032</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.8683705127401313</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.8665874636036032</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.8683705127401313</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.159423681650116</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.161843756039142</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.1881073026291604</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.1893267994491848</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.052864750356536</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.05496494205513</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9259367901504223</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9276389473621478</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-0.9979391493730195</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-0.9999180512475823</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.140029539350704</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.141881645580687</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8217784795023221</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8235168824422389</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4614520338570318</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4626323754477688</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3768499251767526</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3764550770265382</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.264811090879532</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.267140391651358</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.585150168887398</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.5863781921870594</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.896458367364888</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.8984577302497144</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.06519710800498765</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.0661154222596895</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8278679115956497</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8294587633917995</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.809212559403474</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8107848108819713</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2483713380577495</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2492541472421675</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2274474781901987</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2270663650773996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.2159395818873483</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2152892969186166</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.07429339547211428</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.07497005829542513</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.1816678671316744</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1814034416778462</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.405126609465153</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4062140486544278</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.1442148427196144</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1448229644497628</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.335890722684698</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3367397219938209</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3862331751719326</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3858622956966296</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2075570761040232</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2085154427937483</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1081804430019843</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1090249308917861</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.05576733202975414</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.05645931524587044</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.02616890995786794</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.02561340012195405</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.1216072272633423</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1224498694167393</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2825274037610602</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2820248470490313</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.4145553287298532</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4143204516082524</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.163904081947124</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.164493672758362</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2874156661988388</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2866216272185518</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1787854090334291</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1781246755645923</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4761477102739916</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4758543910814585</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2406942083857128</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.2404267484078938</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1799708227073386</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.180542145906008</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.455111322662415</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.456609755068329</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3231684182178782</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.3234334546275964</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1538703827248263</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1537657377083476</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.05044384589811149</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.05064732142642849</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.841020850657847</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8419440542890722</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.730435180865546</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.733587109425378</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6775696803318889</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6778803824157149</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4210817112833155</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.421437912539951</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5661980471897715</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5663456275739844</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7718654011525619</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7720578882771957</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.8281359604253481</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8288486001450559</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8259556779964679</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.826209448977287</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.7951362770877294</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.7953516167106808</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.761080875252079</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7613102530614552</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6615221467030915</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6616559528485769</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6157466392395264</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6156901132156424</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7883564505435114</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.7885928487477093</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5813930665939808</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5815206611003823</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6544565755769548</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.6545315006133406</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6901763471195537</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.6902835939871009</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7148906994602696</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.714980200295245</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7338600745380309</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7339184517306342</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.325046152508523</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.327333517629553</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.031822442280679</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.033722489194251</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.8932249562790685</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.895182736646872</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6565265749618412</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6581494939803993</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.07904191906538252</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.08001211007396405</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.8683705127401313</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.8700840877919066</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.8683705127401313</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.8700840877919066</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.161843756039142</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.164171577627006</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.1893267994491848</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.1904968084516661</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.05496494205513</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.056980467164309</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9276389473621478</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.9292676676988172</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-0.9999180512475823</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.001811481416189</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.141881645580687</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.143650061101141</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8235168824422389</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.825182064816224</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4626323754477688</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4637588193849664</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3764550770265382</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3760766159332763</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.267140391651358</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.269367303278206</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.5863781921870594</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.5875528143709183</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.8984577302497144</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.900379085492606</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.0661154222596895</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.06699005499444764</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8294587633917995</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8309736217978623</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8107848108819713</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8122749340741724</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_6.xlsx
+++ b/predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2492541472421675</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2500990929305498</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2270663650773996</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2266997199406835</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2152892969186166</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.2146648958597238</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.07497005829542513</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.07561678653098931</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1814034416778462</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1811527756969479</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4062140486544278</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4072573912971592</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1448229644497628</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1454067857613474</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3367397219938209</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3375589774270296</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3858622956966296</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3855103827425695</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2085154427937483</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2094335056872977</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1090249308917861</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1098282383848631</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.05645931524587044</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.05712262712440225</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.02561340012195405</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.02509094731746316</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1224498694167393</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1232437460818063</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2820248470490313</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2815600004266287</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4143204516082524</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4141098611634029</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.164493672758362</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1650621091325054</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2866216272185518</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2858667378712778</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1781246755645923</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.177509341398434</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4758543910814585</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4755950452063014</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.2404267484078938</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2401841413126693</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.180542145906008</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.1810767736696062</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.456609755068329</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.458262400457089</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.3234334546275964</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3236796996163168</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1537657377083476</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1536697452910329</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.05064732142642849</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05084090285267291</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8419440542890722</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8428234358414576</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.733587109425378</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.736594303238935</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6778803824157149</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6781731171597556</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.421437912539951</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.421795750265209</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5663456275739844</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5664819126712287</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7720578882771957</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.772236915380064</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8288486001450559</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8295377982837082</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.826209448977287</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8264519252512958</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.7953516167106808</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.7955534820139655</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7613102530614552</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.761525121062221</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6616559528485769</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6617799361587064</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6156901132156424</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6156352193181551</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.7885928487477093</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7888208212081672</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5815206611003823</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5816389467436436</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.6545315006133406</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6545972151652329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.6902835939871009</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6903824904778207</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.714980200295245</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7150631007376881</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7339184517306342</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7339685515590557</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.327333517629553</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.329527288653858</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.033722489194251</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.035545179065364</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.895182736646872</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.8970627951479411</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6581494939803993</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.6597072891845706</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.08001211007396405</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.08094185345616396</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.8700840877919066</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.8717293517258382</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.8700840877919066</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.8717293517258382</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.164171577627006</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.1664085322809</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.1904968084516661</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.1916185038831282</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.056980467164309</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.058913388014339</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.9292676676988172</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9308255106692691</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.001811481416189</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.00362253792675</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.143650061101141</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.145338232461747</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.825182064816224</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.8267761377754184</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4637588193849664</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4648335509659725</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3760766159332763</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3757141019151141</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.269367303278206</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.271495749653661</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.5875528143709183</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.5886754606930437</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.900379085492606</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.9022238000100677</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.06699005499444764</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.06782297853231942</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8309736217978623</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8324162977305294</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8122749340741724</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.813688025679613</v>
       </c>
     </row>
   </sheetData>
